--- a/deep_work_tracker.xlsx
+++ b/deep_work_tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22505"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2e00\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_1be7\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="538" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{27D18DC6-B7FE-4692-96D1-297AEB573E46}"/>
+  <xr:revisionPtr revIDLastSave="672" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DB02C4F2-B88C-4FDC-AC9D-E10D5660C000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="9035" r:id="rId3"/>
+    <pivotCache cacheId="316" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Skunkworks</t>
+  </si>
+  <si>
+    <t>Agile Data Science</t>
   </si>
   <si>
     <t>Sum of Minutes</t>
@@ -1221,7 +1224,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CA815B1-E5B6-4B97-8C50-0B7D5A8F8A22}" name="PivotTable1" cacheId="9035" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CA815B1-E5B6-4B97-8C50-0B7D5A8F8A22}" name="PivotTable1" cacheId="316" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -1381,12 +1384,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85FFF903-AA0E-4298-AE2B-97A5AB99B361}" name="Table1" displayName="Table1" ref="A1:E140" totalsRowShown="0">
-  <autoFilter ref="A1:E140" xr:uid="{9CBD4DF3-A11B-4E40-98D0-42DA6A678FB9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85FFF903-AA0E-4298-AE2B-97A5AB99B361}" name="Table1" displayName="Table1" ref="A1:E180" totalsRowShown="0">
+  <autoFilter ref="A1:E180" xr:uid="{9CBD4DF3-A11B-4E40-98D0-42DA6A678FB9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{FDC306A7-EC88-4E73-92A7-FCD09262E9C4}" name="date"/>
     <tableColumn id="4" xr3:uid="{0DFB1127-A0F3-4904-9101-27E6ECA45752}" name="week_number" dataDxfId="1">
-      <calculatedColumnFormula>WEEKNUM(Table1[[#This Row],[date]])</calculatedColumnFormula>
+      <calculatedColumnFormula>WEEKNUM(Table1[[#This Row],[date]], 2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{533D07D0-573E-4317-9929-F3774B6DC4E0}" name="weekday" dataDxfId="0">
       <calculatedColumnFormula>WEEKDAY(Table1[[#This Row],[date]],1)</calculatedColumnFormula>
@@ -1695,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E140"/>
+  <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141:XFD141"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1731,7 +1734,7 @@
         <v>43743</v>
       </c>
       <c r="B2" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>40</v>
       </c>
       <c r="C2" s="6">
@@ -1750,7 +1753,7 @@
         <v>43743</v>
       </c>
       <c r="B3" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>40</v>
       </c>
       <c r="C3" s="6">
@@ -1769,7 +1772,7 @@
         <v>43745</v>
       </c>
       <c r="B4" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>41</v>
       </c>
       <c r="C4" s="6">
@@ -1788,7 +1791,7 @@
         <v>43745</v>
       </c>
       <c r="B5" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>41</v>
       </c>
       <c r="C5" s="6">
@@ -1807,7 +1810,7 @@
         <v>43745</v>
       </c>
       <c r="B6" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>41</v>
       </c>
       <c r="C6" s="6">
@@ -1826,7 +1829,7 @@
         <v>43746</v>
       </c>
       <c r="B7" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>41</v>
       </c>
       <c r="C7" s="6">
@@ -1845,7 +1848,7 @@
         <v>43746</v>
       </c>
       <c r="B8" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>41</v>
       </c>
       <c r="C8" s="6">
@@ -1864,7 +1867,7 @@
         <v>43746</v>
       </c>
       <c r="B9" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>41</v>
       </c>
       <c r="C9" s="6">
@@ -1883,7 +1886,7 @@
         <v>43747</v>
       </c>
       <c r="B10" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>41</v>
       </c>
       <c r="C10" s="6">
@@ -1902,7 +1905,7 @@
         <v>43747</v>
       </c>
       <c r="B11" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>41</v>
       </c>
       <c r="C11" s="6">
@@ -1921,7 +1924,7 @@
         <v>43747</v>
       </c>
       <c r="B12" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>41</v>
       </c>
       <c r="C12" s="6">
@@ -1940,7 +1943,7 @@
         <v>43748</v>
       </c>
       <c r="B13" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>41</v>
       </c>
       <c r="C13" s="6">
@@ -1959,7 +1962,7 @@
         <v>43748</v>
       </c>
       <c r="B14" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>41</v>
       </c>
       <c r="C14" s="6">
@@ -1978,7 +1981,7 @@
         <v>43748</v>
       </c>
       <c r="B15" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>41</v>
       </c>
       <c r="C15" s="6">
@@ -1997,7 +2000,7 @@
         <v>43749</v>
       </c>
       <c r="B16" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>41</v>
       </c>
       <c r="C16" s="6">
@@ -2016,7 +2019,7 @@
         <v>43749</v>
       </c>
       <c r="B17" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>41</v>
       </c>
       <c r="C17" s="6">
@@ -2035,7 +2038,7 @@
         <v>43750</v>
       </c>
       <c r="B18" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>41</v>
       </c>
       <c r="C18" s="6">
@@ -2054,7 +2057,7 @@
         <v>43750</v>
       </c>
       <c r="B19" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>41</v>
       </c>
       <c r="C19" s="6">
@@ -2073,7 +2076,7 @@
         <v>43752</v>
       </c>
       <c r="B20" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>42</v>
       </c>
       <c r="C20" s="6">
@@ -2092,7 +2095,7 @@
         <v>43752</v>
       </c>
       <c r="B21" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>42</v>
       </c>
       <c r="C21" s="6">
@@ -2111,7 +2114,7 @@
         <v>43753</v>
       </c>
       <c r="B22" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>42</v>
       </c>
       <c r="C22" s="6">
@@ -2130,7 +2133,7 @@
         <v>43753</v>
       </c>
       <c r="B23" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>42</v>
       </c>
       <c r="C23" s="6">
@@ -2149,7 +2152,7 @@
         <v>43753</v>
       </c>
       <c r="B24" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>42</v>
       </c>
       <c r="C24" s="6">
@@ -2168,7 +2171,7 @@
         <v>43755</v>
       </c>
       <c r="B25" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>42</v>
       </c>
       <c r="C25" s="6">
@@ -2187,7 +2190,7 @@
         <v>43755</v>
       </c>
       <c r="B26" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>42</v>
       </c>
       <c r="C26" s="6">
@@ -2206,7 +2209,7 @@
         <v>43756</v>
       </c>
       <c r="B27" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>42</v>
       </c>
       <c r="C27" s="6">
@@ -2225,7 +2228,7 @@
         <v>43756</v>
       </c>
       <c r="B28" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>42</v>
       </c>
       <c r="C28" s="6">
@@ -2244,7 +2247,7 @@
         <v>43757</v>
       </c>
       <c r="B29" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>42</v>
       </c>
       <c r="C29" s="6">
@@ -2263,7 +2266,7 @@
         <v>43759</v>
       </c>
       <c r="B30" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>43</v>
       </c>
       <c r="C30" s="6">
@@ -2282,7 +2285,7 @@
         <v>43759</v>
       </c>
       <c r="B31" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>43</v>
       </c>
       <c r="C31" s="6">
@@ -2301,7 +2304,7 @@
         <v>43760</v>
       </c>
       <c r="B32" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>43</v>
       </c>
       <c r="C32" s="6">
@@ -2320,7 +2323,7 @@
         <v>43760</v>
       </c>
       <c r="B33" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>43</v>
       </c>
       <c r="C33" s="6">
@@ -2339,7 +2342,7 @@
         <v>43761</v>
       </c>
       <c r="B34" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>43</v>
       </c>
       <c r="C34" s="6">
@@ -2358,7 +2361,7 @@
         <v>43761</v>
       </c>
       <c r="B35" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>43</v>
       </c>
       <c r="C35" s="6">
@@ -2377,7 +2380,7 @@
         <v>43761</v>
       </c>
       <c r="B36" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>43</v>
       </c>
       <c r="C36" s="6">
@@ -2396,7 +2399,7 @@
         <v>43766</v>
       </c>
       <c r="B37" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>44</v>
       </c>
       <c r="C37" s="6">
@@ -2415,7 +2418,7 @@
         <v>43766</v>
       </c>
       <c r="B38" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>44</v>
       </c>
       <c r="C38" s="6">
@@ -2434,7 +2437,7 @@
         <v>43766</v>
       </c>
       <c r="B39" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>44</v>
       </c>
       <c r="C39" s="6">
@@ -2453,7 +2456,7 @@
         <v>43767</v>
       </c>
       <c r="B40" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>44</v>
       </c>
       <c r="C40" s="6">
@@ -2472,7 +2475,7 @@
         <v>43767</v>
       </c>
       <c r="B41" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>44</v>
       </c>
       <c r="C41" s="6">
@@ -2491,7 +2494,7 @@
         <v>43767</v>
       </c>
       <c r="B42" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>44</v>
       </c>
       <c r="C42" s="6">
@@ -2510,7 +2513,7 @@
         <v>43768</v>
       </c>
       <c r="B43" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>44</v>
       </c>
       <c r="C43" s="6">
@@ -2529,7 +2532,7 @@
         <v>43768</v>
       </c>
       <c r="B44" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>44</v>
       </c>
       <c r="C44" s="6">
@@ -2548,7 +2551,7 @@
         <v>43769</v>
       </c>
       <c r="B45" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>44</v>
       </c>
       <c r="C45" s="6">
@@ -2567,7 +2570,7 @@
         <v>43769</v>
       </c>
       <c r="B46" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>44</v>
       </c>
       <c r="C46" s="6">
@@ -2586,7 +2589,7 @@
         <v>43770</v>
       </c>
       <c r="B47" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>44</v>
       </c>
       <c r="C47" s="6">
@@ -2605,7 +2608,7 @@
         <v>43771</v>
       </c>
       <c r="B48" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>44</v>
       </c>
       <c r="C48" s="6">
@@ -2624,8 +2627,8 @@
         <v>43772</v>
       </c>
       <c r="B49" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
-        <v>45</v>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>44</v>
       </c>
       <c r="C49" s="6">
         <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
@@ -2643,7 +2646,7 @@
         <v>43773</v>
       </c>
       <c r="B50" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>45</v>
       </c>
       <c r="C50" s="6">
@@ -2662,7 +2665,7 @@
         <v>43773</v>
       </c>
       <c r="B51" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>45</v>
       </c>
       <c r="C51" s="6">
@@ -2681,7 +2684,7 @@
         <v>43774</v>
       </c>
       <c r="B52" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>45</v>
       </c>
       <c r="C52" s="6">
@@ -2700,7 +2703,7 @@
         <v>43774</v>
       </c>
       <c r="B53" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>45</v>
       </c>
       <c r="C53" s="6">
@@ -2719,7 +2722,7 @@
         <v>43775</v>
       </c>
       <c r="B54" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>45</v>
       </c>
       <c r="C54" s="6">
@@ -2738,7 +2741,7 @@
         <v>43775</v>
       </c>
       <c r="B55" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>45</v>
       </c>
       <c r="C55" s="6">
@@ -2757,7 +2760,7 @@
         <v>43775</v>
       </c>
       <c r="B56" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>45</v>
       </c>
       <c r="C56" s="6">
@@ -2776,7 +2779,7 @@
         <v>43776</v>
       </c>
       <c r="B57" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>45</v>
       </c>
       <c r="C57" s="6">
@@ -2795,7 +2798,7 @@
         <v>43777</v>
       </c>
       <c r="B58" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>45</v>
       </c>
       <c r="C58" s="6">
@@ -2814,7 +2817,7 @@
         <v>43778</v>
       </c>
       <c r="B59" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>45</v>
       </c>
       <c r="C59" s="6">
@@ -2833,7 +2836,7 @@
         <v>43780</v>
       </c>
       <c r="B60" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>46</v>
       </c>
       <c r="C60" s="6">
@@ -2852,7 +2855,7 @@
         <v>43781</v>
       </c>
       <c r="B61" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>46</v>
       </c>
       <c r="C61" s="6">
@@ -2871,7 +2874,7 @@
         <v>43781</v>
       </c>
       <c r="B62" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>46</v>
       </c>
       <c r="C62" s="6">
@@ -2890,7 +2893,7 @@
         <v>43781</v>
       </c>
       <c r="B63" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>46</v>
       </c>
       <c r="C63" s="6">
@@ -2909,7 +2912,7 @@
         <v>43782</v>
       </c>
       <c r="B64" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>46</v>
       </c>
       <c r="C64" s="6">
@@ -2928,7 +2931,7 @@
         <v>43782</v>
       </c>
       <c r="B65" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>46</v>
       </c>
       <c r="C65" s="6">
@@ -2947,7 +2950,7 @@
         <v>43782</v>
       </c>
       <c r="B66" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>46</v>
       </c>
       <c r="C66" s="6">
@@ -2966,7 +2969,7 @@
         <v>43783</v>
       </c>
       <c r="B67" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>46</v>
       </c>
       <c r="C67" s="6">
@@ -2985,7 +2988,7 @@
         <v>43784</v>
       </c>
       <c r="B68" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>46</v>
       </c>
       <c r="C68" s="6">
@@ -3004,7 +3007,7 @@
         <v>43784</v>
       </c>
       <c r="B69" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>46</v>
       </c>
       <c r="C69" s="6">
@@ -3023,7 +3026,7 @@
         <v>43785</v>
       </c>
       <c r="B70" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>46</v>
       </c>
       <c r="C70" s="6">
@@ -3042,7 +3045,7 @@
         <v>43787</v>
       </c>
       <c r="B71" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>47</v>
       </c>
       <c r="C71" s="6">
@@ -3061,7 +3064,7 @@
         <v>43787</v>
       </c>
       <c r="B72" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>47</v>
       </c>
       <c r="C72" s="6">
@@ -3080,7 +3083,7 @@
         <v>43788</v>
       </c>
       <c r="B73" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>47</v>
       </c>
       <c r="C73" s="6">
@@ -3099,7 +3102,7 @@
         <v>43788</v>
       </c>
       <c r="B74" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>47</v>
       </c>
       <c r="C74" s="6">
@@ -3118,7 +3121,7 @@
         <v>43788</v>
       </c>
       <c r="B75" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>47</v>
       </c>
       <c r="C75" s="6">
@@ -3137,7 +3140,7 @@
         <v>43789</v>
       </c>
       <c r="B76" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>47</v>
       </c>
       <c r="C76" s="6">
@@ -3156,7 +3159,7 @@
         <v>43789</v>
       </c>
       <c r="B77" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>47</v>
       </c>
       <c r="C77" s="6">
@@ -3175,7 +3178,7 @@
         <v>43789</v>
       </c>
       <c r="B78" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>47</v>
       </c>
       <c r="C78" s="6">
@@ -3194,7 +3197,7 @@
         <v>43792</v>
       </c>
       <c r="B79" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>47</v>
       </c>
       <c r="C79" s="6">
@@ -3213,8 +3216,8 @@
         <v>43793</v>
       </c>
       <c r="B80" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
-        <v>48</v>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>47</v>
       </c>
       <c r="C80" s="6">
         <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
@@ -3232,7 +3235,7 @@
         <v>43794</v>
       </c>
       <c r="B81" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>48</v>
       </c>
       <c r="C81" s="6">
@@ -3251,7 +3254,7 @@
         <v>43794</v>
       </c>
       <c r="B82" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>48</v>
       </c>
       <c r="C82" s="6">
@@ -3270,7 +3273,7 @@
         <v>43795</v>
       </c>
       <c r="B83" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>48</v>
       </c>
       <c r="C83" s="6">
@@ -3289,7 +3292,7 @@
         <v>43795</v>
       </c>
       <c r="B84" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>48</v>
       </c>
       <c r="C84" s="6">
@@ -3308,7 +3311,7 @@
         <v>43795</v>
       </c>
       <c r="B85" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>48</v>
       </c>
       <c r="C85" s="6">
@@ -3327,7 +3330,7 @@
         <v>43796</v>
       </c>
       <c r="B86" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>48</v>
       </c>
       <c r="C86" s="6">
@@ -3346,7 +3349,7 @@
         <v>43797</v>
       </c>
       <c r="B87" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>48</v>
       </c>
       <c r="C87" s="6">
@@ -3365,7 +3368,7 @@
         <v>43801</v>
       </c>
       <c r="B88" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>49</v>
       </c>
       <c r="C88" s="6">
@@ -3384,7 +3387,7 @@
         <v>43801</v>
       </c>
       <c r="B89" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>49</v>
       </c>
       <c r="C89" s="6">
@@ -3403,7 +3406,7 @@
         <v>43801</v>
       </c>
       <c r="B90" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>49</v>
       </c>
       <c r="C90" s="6">
@@ -3422,7 +3425,7 @@
         <v>43802</v>
       </c>
       <c r="B91" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>49</v>
       </c>
       <c r="C91" s="6">
@@ -3441,7 +3444,7 @@
         <v>43802</v>
       </c>
       <c r="B92" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>49</v>
       </c>
       <c r="C92" s="6">
@@ -3460,7 +3463,7 @@
         <v>43802</v>
       </c>
       <c r="B93" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>49</v>
       </c>
       <c r="C93" s="6">
@@ -3479,7 +3482,7 @@
         <v>43803</v>
       </c>
       <c r="B94" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>49</v>
       </c>
       <c r="C94" s="6">
@@ -3498,7 +3501,7 @@
         <v>43803</v>
       </c>
       <c r="B95" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>49</v>
       </c>
       <c r="C95" s="6">
@@ -3517,7 +3520,7 @@
         <v>43803</v>
       </c>
       <c r="B96" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>49</v>
       </c>
       <c r="C96" s="6">
@@ -3536,7 +3539,7 @@
         <v>43804</v>
       </c>
       <c r="B97" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>49</v>
       </c>
       <c r="C97" s="6">
@@ -3555,7 +3558,7 @@
         <v>43804</v>
       </c>
       <c r="B98" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>49</v>
       </c>
       <c r="C98" s="6">
@@ -3574,7 +3577,7 @@
         <v>43804</v>
       </c>
       <c r="B99" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>49</v>
       </c>
       <c r="C99" s="6">
@@ -3593,7 +3596,7 @@
         <v>43805</v>
       </c>
       <c r="B100" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>49</v>
       </c>
       <c r="C100" s="6">
@@ -3612,7 +3615,7 @@
         <v>43805</v>
       </c>
       <c r="B101" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>49</v>
       </c>
       <c r="C101" s="6">
@@ -3631,7 +3634,7 @@
         <v>43805</v>
       </c>
       <c r="B102" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>49</v>
       </c>
       <c r="C102" s="6">
@@ -3650,7 +3653,7 @@
         <v>43806</v>
       </c>
       <c r="B103" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>49</v>
       </c>
       <c r="C103" s="6">
@@ -3670,7 +3673,7 @@
         <v>43808</v>
       </c>
       <c r="B104" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>50</v>
       </c>
       <c r="C104" s="6">
@@ -3689,7 +3692,7 @@
         <v>43808</v>
       </c>
       <c r="B105" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>50</v>
       </c>
       <c r="C105" s="6">
@@ -3708,7 +3711,7 @@
         <v>43810</v>
       </c>
       <c r="B106" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>50</v>
       </c>
       <c r="C106" s="6">
@@ -3727,7 +3730,7 @@
         <v>43811</v>
       </c>
       <c r="B107" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>50</v>
       </c>
       <c r="C107" s="6">
@@ -3746,7 +3749,7 @@
         <v>43815</v>
       </c>
       <c r="B108" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>51</v>
       </c>
       <c r="C108" s="6">
@@ -3765,7 +3768,7 @@
         <v>43815</v>
       </c>
       <c r="B109" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>51</v>
       </c>
       <c r="C109" s="6">
@@ -3784,7 +3787,7 @@
         <v>43816</v>
       </c>
       <c r="B110" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>51</v>
       </c>
       <c r="C110" s="6">
@@ -3803,7 +3806,7 @@
         <v>43816</v>
       </c>
       <c r="B111" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>51</v>
       </c>
       <c r="C111" s="6">
@@ -3822,7 +3825,7 @@
         <v>43817</v>
       </c>
       <c r="B112" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>51</v>
       </c>
       <c r="C112" s="6">
@@ -3841,7 +3844,7 @@
         <v>43817</v>
       </c>
       <c r="B113" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>51</v>
       </c>
       <c r="C113" s="6">
@@ -3860,7 +3863,7 @@
         <v>43817</v>
       </c>
       <c r="B114" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>51</v>
       </c>
       <c r="C114" s="6">
@@ -3879,7 +3882,7 @@
         <v>43818</v>
       </c>
       <c r="B115" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>51</v>
       </c>
       <c r="C115" s="6">
@@ -3899,7 +3902,7 @@
         <v>43817</v>
       </c>
       <c r="B116" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>51</v>
       </c>
       <c r="C116" s="6">
@@ -3918,7 +3921,7 @@
         <v>43818</v>
       </c>
       <c r="B117" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>51</v>
       </c>
       <c r="C117" s="6">
@@ -3937,7 +3940,7 @@
         <v>43819</v>
       </c>
       <c r="B118" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>51</v>
       </c>
       <c r="C118" s="6">
@@ -3956,7 +3959,7 @@
         <v>43819</v>
       </c>
       <c r="B119" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>51</v>
       </c>
       <c r="C119" s="6">
@@ -3975,8 +3978,8 @@
         <v>43821</v>
       </c>
       <c r="B120" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
-        <v>52</v>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>51</v>
       </c>
       <c r="C120" s="6">
         <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
@@ -3994,7 +3997,7 @@
         <v>43827</v>
       </c>
       <c r="B121" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>52</v>
       </c>
       <c r="C121" s="6">
@@ -4014,8 +4017,8 @@
         <v>43828</v>
       </c>
       <c r="B122" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
-        <v>53</v>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>52</v>
       </c>
       <c r="C122" s="6">
         <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
@@ -4033,7 +4036,7 @@
         <v>43829</v>
       </c>
       <c r="B123" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>53</v>
       </c>
       <c r="C123" s="6">
@@ -4052,7 +4055,7 @@
         <v>43832</v>
       </c>
       <c r="B124" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>1</v>
       </c>
       <c r="C124" s="6">
@@ -4071,7 +4074,7 @@
         <v>43832</v>
       </c>
       <c r="B125" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>1</v>
       </c>
       <c r="C125" s="6">
@@ -4090,7 +4093,7 @@
         <v>43833</v>
       </c>
       <c r="B126" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>1</v>
       </c>
       <c r="C126" s="6">
@@ -4109,7 +4112,7 @@
         <v>43834</v>
       </c>
       <c r="B127" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>1</v>
       </c>
       <c r="C127" s="6">
@@ -4128,8 +4131,8 @@
         <v>43835</v>
       </c>
       <c r="B128" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
-        <v>2</v>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>1</v>
       </c>
       <c r="C128" s="6">
         <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
@@ -4147,8 +4150,8 @@
         <v>43835</v>
       </c>
       <c r="B129" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
-        <v>2</v>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>1</v>
       </c>
       <c r="C129" s="6">
         <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
@@ -4166,7 +4169,7 @@
         <v>43836</v>
       </c>
       <c r="B130" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>2</v>
       </c>
       <c r="C130" s="6">
@@ -4185,7 +4188,7 @@
         <v>43836</v>
       </c>
       <c r="B131" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>2</v>
       </c>
       <c r="C131" s="6">
@@ -4204,7 +4207,7 @@
         <v>43837</v>
       </c>
       <c r="B132" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>2</v>
       </c>
       <c r="C132" s="6">
@@ -4223,7 +4226,7 @@
         <v>43837</v>
       </c>
       <c r="B133" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>2</v>
       </c>
       <c r="C133" s="6">
@@ -4242,7 +4245,7 @@
         <v>43837</v>
       </c>
       <c r="B134" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>2</v>
       </c>
       <c r="C134" s="6">
@@ -4261,7 +4264,7 @@
         <v>43838</v>
       </c>
       <c r="B135" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>2</v>
       </c>
       <c r="C135" s="6">
@@ -4280,7 +4283,7 @@
         <v>43839</v>
       </c>
       <c r="B136" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>2</v>
       </c>
       <c r="C136" s="6">
@@ -4299,7 +4302,7 @@
         <v>43839</v>
       </c>
       <c r="B137" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>2</v>
       </c>
       <c r="C137" s="6">
@@ -4318,7 +4321,7 @@
         <v>43838</v>
       </c>
       <c r="B138" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>2</v>
       </c>
       <c r="C138" s="6">
@@ -4337,7 +4340,7 @@
         <v>43840</v>
       </c>
       <c r="B139" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>2</v>
       </c>
       <c r="C139" s="6">
@@ -4356,7 +4359,7 @@
         <v>43841</v>
       </c>
       <c r="B140" s="6">
-        <f>WEEKNUM(Table1[[#This Row],[date]])</f>
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
         <v>2</v>
       </c>
       <c r="C140" s="6">
@@ -4368,6 +4371,767 @@
       </c>
       <c r="E140">
         <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
+        <v>43841</v>
+      </c>
+      <c r="B141" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>2</v>
+      </c>
+      <c r="C141" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="D141" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
+        <v>43843</v>
+      </c>
+      <c r="B142" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>3</v>
+      </c>
+      <c r="C142" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="D142" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
+        <v>43843</v>
+      </c>
+      <c r="B143" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>3</v>
+      </c>
+      <c r="C143" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>43843</v>
+      </c>
+      <c r="B144" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>3</v>
+      </c>
+      <c r="C144" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>43844</v>
+      </c>
+      <c r="B145" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>3</v>
+      </c>
+      <c r="C145" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="D145" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
+        <v>43844</v>
+      </c>
+      <c r="B146" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>3</v>
+      </c>
+      <c r="C146" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="D146" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
+        <v>43844</v>
+      </c>
+      <c r="B147" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>3</v>
+      </c>
+      <c r="C147" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
+        <v>43845</v>
+      </c>
+      <c r="B148" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>3</v>
+      </c>
+      <c r="C148" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="D148" t="s">
+        <v>5</v>
+      </c>
+      <c r="E148">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
+        <v>43845</v>
+      </c>
+      <c r="B149" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>3</v>
+      </c>
+      <c r="C149" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="D149" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
+        <v>43846</v>
+      </c>
+      <c r="B150" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>3</v>
+      </c>
+      <c r="C150" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="D150" t="s">
+        <v>5</v>
+      </c>
+      <c r="E150">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
+        <v>43846</v>
+      </c>
+      <c r="B151" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>3</v>
+      </c>
+      <c r="C151" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="D151" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1">
+        <v>43847</v>
+      </c>
+      <c r="B152" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>3</v>
+      </c>
+      <c r="C152" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="D152" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1">
+        <v>43848</v>
+      </c>
+      <c r="B153" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>3</v>
+      </c>
+      <c r="C153" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="D153" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B154" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>4</v>
+      </c>
+      <c r="C154" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="D154" t="s">
+        <v>5</v>
+      </c>
+      <c r="E154">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B155" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>4</v>
+      </c>
+      <c r="C155" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="D155" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B156" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>4</v>
+      </c>
+      <c r="C156" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="D156" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B157" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>4</v>
+      </c>
+      <c r="C157" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="D157" t="s">
+        <v>5</v>
+      </c>
+      <c r="E157">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B158" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>4</v>
+      </c>
+      <c r="C158" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="D158" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B159" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>4</v>
+      </c>
+      <c r="C159" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="D159" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B160" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>4</v>
+      </c>
+      <c r="C160" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="D160" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B161" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>4</v>
+      </c>
+      <c r="C161" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="D161" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B162" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>4</v>
+      </c>
+      <c r="C162" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="D162" t="s">
+        <v>5</v>
+      </c>
+      <c r="E162">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B163" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>4</v>
+      </c>
+      <c r="C163" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="D163" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B164" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>4</v>
+      </c>
+      <c r="C164" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="D164" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B165" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>4</v>
+      </c>
+      <c r="C165" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B166" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>4</v>
+      </c>
+      <c r="C166" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="D166" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1">
+        <v>43855</v>
+      </c>
+      <c r="B167" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>4</v>
+      </c>
+      <c r="C167" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="D167" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B168" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>4</v>
+      </c>
+      <c r="C168" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="D168" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1">
+        <v>43857</v>
+      </c>
+      <c r="B169" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>5</v>
+      </c>
+      <c r="C169" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="D169" t="s">
+        <v>5</v>
+      </c>
+      <c r="E169">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1">
+        <v>43857</v>
+      </c>
+      <c r="B170" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>5</v>
+      </c>
+      <c r="C170" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="D170" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1">
+        <v>43857</v>
+      </c>
+      <c r="B171" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>5</v>
+      </c>
+      <c r="C171" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="D171" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1">
+        <v>43857</v>
+      </c>
+      <c r="B172" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>5</v>
+      </c>
+      <c r="C172" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="D172" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1">
+        <v>43858</v>
+      </c>
+      <c r="B173" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>5</v>
+      </c>
+      <c r="C173" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="D173" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1">
+        <v>43858</v>
+      </c>
+      <c r="B174" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>5</v>
+      </c>
+      <c r="C174" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="D174" t="s">
+        <v>5</v>
+      </c>
+      <c r="E174">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1">
+        <v>43858</v>
+      </c>
+      <c r="B175" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>5</v>
+      </c>
+      <c r="C175" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B176" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>5</v>
+      </c>
+      <c r="C176" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="D176" t="s">
+        <v>5</v>
+      </c>
+      <c r="E176">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B177" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>5</v>
+      </c>
+      <c r="C177" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177">
+        <f>60*4</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1">
+        <v>43860</v>
+      </c>
+      <c r="B178" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>5</v>
+      </c>
+      <c r="C178" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="D178" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B179" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>5</v>
+      </c>
+      <c r="C179" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="D179" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B180" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>5</v>
+      </c>
+      <c r="C180" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="D180" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4398,15 +5162,15 @@
   <sheetData>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -4418,7 +5182,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4513,7 +5277,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4">
         <v>181</v>

--- a/deep_work_tracker.xlsx
+++ b/deep_work_tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_1be7\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="672" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DB02C4F2-B88C-4FDC-AC9D-E10D5660C000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{487D40F2-2247-4F86-B9A1-F2AF9AEF0D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="316" r:id="rId3"/>
+    <pivotCache cacheId="824" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -1224,7 +1224,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CA815B1-E5B6-4B97-8C50-0B7D5A8F8A22}" name="PivotTable1" cacheId="316" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CA815B1-E5B6-4B97-8C50-0B7D5A8F8A22}" name="PivotTable1" cacheId="824" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -1384,8 +1384,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85FFF903-AA0E-4298-AE2B-97A5AB99B361}" name="Table1" displayName="Table1" ref="A1:E180" totalsRowShown="0">
-  <autoFilter ref="A1:E180" xr:uid="{9CBD4DF3-A11B-4E40-98D0-42DA6A678FB9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85FFF903-AA0E-4298-AE2B-97A5AB99B361}" name="Table1" displayName="Table1" ref="A1:E205" totalsRowShown="0">
+  <autoFilter ref="A1:E205" xr:uid="{9CBD4DF3-A11B-4E40-98D0-42DA6A678FB9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{FDC306A7-EC88-4E73-92A7-FCD09262E9C4}" name="date"/>
     <tableColumn id="4" xr3:uid="{0DFB1127-A0F3-4904-9101-27E6ECA45752}" name="week_number" dataDxfId="1">
@@ -1698,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E180"/>
+  <dimension ref="A1:E205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B190" workbookViewId="0">
+      <selection activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5132,6 +5132,483 @@
       </c>
       <c r="E180">
         <v>120</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B181" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>5</v>
+      </c>
+      <c r="C181" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="D181" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B182" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>6</v>
+      </c>
+      <c r="C182" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="D182" t="s">
+        <v>5</v>
+      </c>
+      <c r="E182">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B183" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>6</v>
+      </c>
+      <c r="C183" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="D183" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B184" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>6</v>
+      </c>
+      <c r="C184" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="D184" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B185" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>6</v>
+      </c>
+      <c r="C185" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="D185" t="s">
+        <v>5</v>
+      </c>
+      <c r="E185">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B186" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>6</v>
+      </c>
+      <c r="C186" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="D186" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B187" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>6</v>
+      </c>
+      <c r="C187" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="D187" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B188" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>6</v>
+      </c>
+      <c r="C188" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="D188" t="s">
+        <v>5</v>
+      </c>
+      <c r="E188">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B189" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>6</v>
+      </c>
+      <c r="C189" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="D189" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B190" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>6</v>
+      </c>
+      <c r="C190" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="D190" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="1">
+        <v>43867</v>
+      </c>
+      <c r="B191" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>6</v>
+      </c>
+      <c r="C191" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="D191" t="s">
+        <v>5</v>
+      </c>
+      <c r="E191">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="1">
+        <v>43867</v>
+      </c>
+      <c r="B192" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>6</v>
+      </c>
+      <c r="C192" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="D192" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B193" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>6</v>
+      </c>
+      <c r="C193" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="D193" t="s">
+        <v>9</v>
+      </c>
+      <c r="E193">
+        <f>4*60</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B194" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>6</v>
+      </c>
+      <c r="C194" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="D194" t="s">
+        <v>9</v>
+      </c>
+      <c r="E194">
+        <f>120+10</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B195" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>7</v>
+      </c>
+      <c r="C195" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>5</v>
+      </c>
+      <c r="E195">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B196" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>7</v>
+      </c>
+      <c r="C196" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="D196" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B197" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>7</v>
+      </c>
+      <c r="C197" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="D197" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B198" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>7</v>
+      </c>
+      <c r="C198" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="D198" t="s">
+        <v>5</v>
+      </c>
+      <c r="E198">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B199" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>7</v>
+      </c>
+      <c r="C199" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="D199" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="1">
+        <v>43873</v>
+      </c>
+      <c r="B200" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>7</v>
+      </c>
+      <c r="C200" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="D200" t="s">
+        <v>5</v>
+      </c>
+      <c r="E200">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="1">
+        <v>43873</v>
+      </c>
+      <c r="B201" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>7</v>
+      </c>
+      <c r="C201" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="D201" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="1">
+        <v>43873</v>
+      </c>
+      <c r="B202" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>7</v>
+      </c>
+      <c r="C202" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="D202" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="1">
+        <v>43874</v>
+      </c>
+      <c r="B203" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>7</v>
+      </c>
+      <c r="C203" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="D203" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="1">
+        <v>43874</v>
+      </c>
+      <c r="B204" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>7</v>
+      </c>
+      <c r="C204" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="D204" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B205" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>7</v>
+      </c>
+      <c r="C205" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="D205" t="s">
+        <v>9</v>
+      </c>
+      <c r="E205">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/deep_work_tracker.xlsx
+++ b/deep_work_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_1be7\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{487D40F2-2247-4F86-B9A1-F2AF9AEF0D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA863547-7F39-4D56-BEA3-66A983C6EE9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1392,7 +1392,7 @@
       <calculatedColumnFormula>WEEKNUM(Table1[[#This Row],[date]], 2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{533D07D0-573E-4317-9929-F3774B6DC4E0}" name="weekday" dataDxfId="0">
-      <calculatedColumnFormula>WEEKDAY(Table1[[#This Row],[date]],1)</calculatedColumnFormula>
+      <calculatedColumnFormula>WEEKDAY(Table1[[#This Row],[date]],2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{3B25CC6F-76FE-4ECB-A750-D7C3DA12CB4C}" name="type"/>
     <tableColumn id="3" xr3:uid="{34C477EB-9014-4074-ADDD-A290B985F997}" name="minutes"/>
@@ -1700,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B190" workbookViewId="0">
-      <selection activeCell="D217" sqref="D217"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1738,8 +1738,8 @@
         <v>40</v>
       </c>
       <c r="C2" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>7</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1757,8 +1757,8 @@
         <v>40</v>
       </c>
       <c r="C3" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>7</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1776,8 +1776,8 @@
         <v>41</v>
       </c>
       <c r="C4" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -1795,8 +1795,8 @@
         <v>41</v>
       </c>
       <c r="C5" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -1814,8 +1814,8 @@
         <v>41</v>
       </c>
       <c r="C6" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1833,8 +1833,8 @@
         <v>41</v>
       </c>
       <c r="C7" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -1852,8 +1852,8 @@
         <v>41</v>
       </c>
       <c r="C8" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -1871,8 +1871,8 @@
         <v>41</v>
       </c>
       <c r="C9" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1890,8 +1890,8 @@
         <v>41</v>
       </c>
       <c r="C10" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -1909,8 +1909,8 @@
         <v>41</v>
       </c>
       <c r="C11" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -1928,8 +1928,8 @@
         <v>41</v>
       </c>
       <c r="C12" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -1947,8 +1947,8 @@
         <v>41</v>
       </c>
       <c r="C13" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -1966,8 +1966,8 @@
         <v>41</v>
       </c>
       <c r="C14" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -1985,8 +1985,8 @@
         <v>41</v>
       </c>
       <c r="C15" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -2004,8 +2004,8 @@
         <v>41</v>
       </c>
       <c r="C16" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>6</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -2023,8 +2023,8 @@
         <v>41</v>
       </c>
       <c r="C17" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>6</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -2042,8 +2042,8 @@
         <v>41</v>
       </c>
       <c r="C18" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>7</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -2061,8 +2061,8 @@
         <v>41</v>
       </c>
       <c r="C19" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>7</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -2080,8 +2080,8 @@
         <v>42</v>
       </c>
       <c r="C20" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -2099,8 +2099,8 @@
         <v>42</v>
       </c>
       <c r="C21" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -2118,8 +2118,8 @@
         <v>42</v>
       </c>
       <c r="C22" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -2137,8 +2137,8 @@
         <v>42</v>
       </c>
       <c r="C23" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -2156,8 +2156,8 @@
         <v>42</v>
       </c>
       <c r="C24" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -2175,8 +2175,8 @@
         <v>42</v>
       </c>
       <c r="C25" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -2194,8 +2194,8 @@
         <v>42</v>
       </c>
       <c r="C26" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -2213,8 +2213,8 @@
         <v>42</v>
       </c>
       <c r="C27" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>6</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -2232,8 +2232,8 @@
         <v>42</v>
       </c>
       <c r="C28" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>6</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -2251,8 +2251,8 @@
         <v>42</v>
       </c>
       <c r="C29" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>7</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -2270,8 +2270,8 @@
         <v>43</v>
       </c>
       <c r="C30" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -2289,8 +2289,8 @@
         <v>43</v>
       </c>
       <c r="C31" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -2308,8 +2308,8 @@
         <v>43</v>
       </c>
       <c r="C32" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -2327,8 +2327,8 @@
         <v>43</v>
       </c>
       <c r="C33" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -2346,8 +2346,8 @@
         <v>43</v>
       </c>
       <c r="C34" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -2365,8 +2365,8 @@
         <v>43</v>
       </c>
       <c r="C35" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
@@ -2384,8 +2384,8 @@
         <v>43</v>
       </c>
       <c r="C36" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -2403,8 +2403,8 @@
         <v>44</v>
       </c>
       <c r="C37" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -2422,8 +2422,8 @@
         <v>44</v>
       </c>
       <c r="C38" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -2441,8 +2441,8 @@
         <v>44</v>
       </c>
       <c r="C39" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -2460,8 +2460,8 @@
         <v>44</v>
       </c>
       <c r="C40" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -2479,8 +2479,8 @@
         <v>44</v>
       </c>
       <c r="C41" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -2498,8 +2498,8 @@
         <v>44</v>
       </c>
       <c r="C42" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -2517,8 +2517,8 @@
         <v>44</v>
       </c>
       <c r="C43" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -2536,8 +2536,8 @@
         <v>44</v>
       </c>
       <c r="C44" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -2555,8 +2555,8 @@
         <v>44</v>
       </c>
       <c r="C45" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -2574,8 +2574,8 @@
         <v>44</v>
       </c>
       <c r="C46" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
@@ -2593,8 +2593,8 @@
         <v>44</v>
       </c>
       <c r="C47" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>6</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -2612,8 +2612,8 @@
         <v>44</v>
       </c>
       <c r="C48" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>7</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -2631,8 +2631,8 @@
         <v>44</v>
       </c>
       <c r="C49" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>1</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
         <v>6</v>
@@ -2650,8 +2650,8 @@
         <v>45</v>
       </c>
       <c r="C50" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -2669,8 +2669,8 @@
         <v>45</v>
       </c>
       <c r="C51" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -2688,8 +2688,8 @@
         <v>45</v>
       </c>
       <c r="C52" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -2707,8 +2707,8 @@
         <v>45</v>
       </c>
       <c r="C53" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -2726,8 +2726,8 @@
         <v>45</v>
       </c>
       <c r="C54" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -2745,8 +2745,8 @@
         <v>45</v>
       </c>
       <c r="C55" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -2764,8 +2764,8 @@
         <v>45</v>
       </c>
       <c r="C56" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -2783,8 +2783,8 @@
         <v>45</v>
       </c>
       <c r="C57" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -2802,8 +2802,8 @@
         <v>45</v>
       </c>
       <c r="C58" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>6</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>5</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -2821,8 +2821,8 @@
         <v>45</v>
       </c>
       <c r="C59" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>7</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -2840,8 +2840,8 @@
         <v>46</v>
       </c>
       <c r="C60" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -2859,8 +2859,8 @@
         <v>46</v>
       </c>
       <c r="C61" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -2878,8 +2878,8 @@
         <v>46</v>
       </c>
       <c r="C62" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -2897,8 +2897,8 @@
         <v>46</v>
       </c>
       <c r="C63" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -2916,8 +2916,8 @@
         <v>46</v>
       </c>
       <c r="C64" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -2935,8 +2935,8 @@
         <v>46</v>
       </c>
       <c r="C65" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -2954,8 +2954,8 @@
         <v>46</v>
       </c>
       <c r="C66" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
@@ -2973,8 +2973,8 @@
         <v>46</v>
       </c>
       <c r="C67" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
@@ -2992,8 +2992,8 @@
         <v>46</v>
       </c>
       <c r="C68" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>6</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>5</v>
       </c>
       <c r="D68" t="s">
         <v>5</v>
@@ -3011,8 +3011,8 @@
         <v>46</v>
       </c>
       <c r="C69" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>6</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -3030,8 +3030,8 @@
         <v>46</v>
       </c>
       <c r="C70" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>7</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>6</v>
       </c>
       <c r="D70" t="s">
         <v>5</v>
@@ -3049,8 +3049,8 @@
         <v>47</v>
       </c>
       <c r="C71" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -3068,8 +3068,8 @@
         <v>47</v>
       </c>
       <c r="C72" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -3087,8 +3087,8 @@
         <v>47</v>
       </c>
       <c r="C73" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -3106,8 +3106,8 @@
         <v>47</v>
       </c>
       <c r="C74" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -3125,8 +3125,8 @@
         <v>47</v>
       </c>
       <c r="C75" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
@@ -3144,8 +3144,8 @@
         <v>47</v>
       </c>
       <c r="C76" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
@@ -3163,8 +3163,8 @@
         <v>47</v>
       </c>
       <c r="C77" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -3182,8 +3182,8 @@
         <v>47</v>
       </c>
       <c r="C78" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
@@ -3201,8 +3201,8 @@
         <v>47</v>
       </c>
       <c r="C79" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>7</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
@@ -3220,8 +3220,8 @@
         <v>47</v>
       </c>
       <c r="C80" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>1</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>7</v>
       </c>
       <c r="D80" t="s">
         <v>6</v>
@@ -3239,8 +3239,8 @@
         <v>48</v>
       </c>
       <c r="C81" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D81" t="s">
         <v>6</v>
@@ -3258,8 +3258,8 @@
         <v>48</v>
       </c>
       <c r="C82" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -3277,8 +3277,8 @@
         <v>48</v>
       </c>
       <c r="C83" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D83" t="s">
         <v>5</v>
@@ -3296,8 +3296,8 @@
         <v>48</v>
       </c>
       <c r="C84" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D84" t="s">
         <v>6</v>
@@ -3315,8 +3315,8 @@
         <v>48</v>
       </c>
       <c r="C85" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -3334,8 +3334,8 @@
         <v>48</v>
       </c>
       <c r="C86" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -3353,8 +3353,8 @@
         <v>48</v>
       </c>
       <c r="C87" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D87" t="s">
         <v>5</v>
@@ -3372,8 +3372,8 @@
         <v>49</v>
       </c>
       <c r="C88" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D88" t="s">
         <v>5</v>
@@ -3391,8 +3391,8 @@
         <v>49</v>
       </c>
       <c r="C89" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -3410,8 +3410,8 @@
         <v>49</v>
       </c>
       <c r="C90" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -3429,8 +3429,8 @@
         <v>49</v>
       </c>
       <c r="C91" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D91" t="s">
         <v>5</v>
@@ -3448,8 +3448,8 @@
         <v>49</v>
       </c>
       <c r="C92" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -3467,8 +3467,8 @@
         <v>49</v>
       </c>
       <c r="C93" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -3486,8 +3486,8 @@
         <v>49</v>
       </c>
       <c r="C94" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D94" t="s">
         <v>5</v>
@@ -3505,8 +3505,8 @@
         <v>49</v>
       </c>
       <c r="C95" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -3524,8 +3524,8 @@
         <v>49</v>
       </c>
       <c r="C96" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -3543,8 +3543,8 @@
         <v>49</v>
       </c>
       <c r="C97" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D97" t="s">
         <v>5</v>
@@ -3562,8 +3562,8 @@
         <v>49</v>
       </c>
       <c r="C98" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -3581,8 +3581,8 @@
         <v>49</v>
       </c>
       <c r="C99" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -3600,8 +3600,8 @@
         <v>49</v>
       </c>
       <c r="C100" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>6</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>5</v>
       </c>
       <c r="D100" t="s">
         <v>5</v>
@@ -3619,8 +3619,8 @@
         <v>49</v>
       </c>
       <c r="C101" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>6</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>5</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -3638,8 +3638,8 @@
         <v>49</v>
       </c>
       <c r="C102" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>6</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>5</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -3657,8 +3657,8 @@
         <v>49</v>
       </c>
       <c r="C103" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>7</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>6</v>
       </c>
       <c r="D103" t="s">
         <v>5</v>
@@ -3677,8 +3677,8 @@
         <v>50</v>
       </c>
       <c r="C104" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D104" t="s">
         <v>5</v>
@@ -3696,8 +3696,8 @@
         <v>50</v>
       </c>
       <c r="C105" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
@@ -3715,8 +3715,8 @@
         <v>50</v>
       </c>
       <c r="C106" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -3734,8 +3734,8 @@
         <v>50</v>
       </c>
       <c r="C107" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -3753,8 +3753,8 @@
         <v>51</v>
       </c>
       <c r="C108" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D108" t="s">
         <v>5</v>
@@ -3772,8 +3772,8 @@
         <v>51</v>
       </c>
       <c r="C109" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -3791,8 +3791,8 @@
         <v>51</v>
       </c>
       <c r="C110" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D110" t="s">
         <v>5</v>
@@ -3810,8 +3810,8 @@
         <v>51</v>
       </c>
       <c r="C111" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
@@ -3829,8 +3829,8 @@
         <v>51</v>
       </c>
       <c r="C112" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D112" t="s">
         <v>5</v>
@@ -3848,8 +3848,8 @@
         <v>51</v>
       </c>
       <c r="C113" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D113" t="s">
         <v>7</v>
@@ -3867,8 +3867,8 @@
         <v>51</v>
       </c>
       <c r="C114" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
@@ -3886,8 +3886,8 @@
         <v>51</v>
       </c>
       <c r="C115" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D115" t="s">
         <v>5</v>
@@ -3906,8 +3906,8 @@
         <v>51</v>
       </c>
       <c r="C116" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D116" t="s">
         <v>5</v>
@@ -3925,8 +3925,8 @@
         <v>51</v>
       </c>
       <c r="C117" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
@@ -3944,8 +3944,8 @@
         <v>51</v>
       </c>
       <c r="C118" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>6</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>5</v>
       </c>
       <c r="D118" t="s">
         <v>5</v>
@@ -3963,8 +3963,8 @@
         <v>51</v>
       </c>
       <c r="C119" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>6</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>5</v>
       </c>
       <c r="D119" t="s">
         <v>7</v>
@@ -3982,8 +3982,8 @@
         <v>51</v>
       </c>
       <c r="C120" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>1</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>7</v>
       </c>
       <c r="D120" t="s">
         <v>5</v>
@@ -4001,8 +4001,8 @@
         <v>52</v>
       </c>
       <c r="C121" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>7</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>6</v>
       </c>
       <c r="D121" t="s">
         <v>5</v>
@@ -4021,8 +4021,8 @@
         <v>52</v>
       </c>
       <c r="C122" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>1</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>7</v>
       </c>
       <c r="D122" t="s">
         <v>5</v>
@@ -4040,8 +4040,8 @@
         <v>53</v>
       </c>
       <c r="C123" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D123" t="s">
         <v>5</v>
@@ -4059,8 +4059,8 @@
         <v>1</v>
       </c>
       <c r="C124" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D124" t="s">
         <v>5</v>
@@ -4078,8 +4078,8 @@
         <v>1</v>
       </c>
       <c r="C125" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D125" t="s">
         <v>7</v>
@@ -4097,8 +4097,8 @@
         <v>1</v>
       </c>
       <c r="C126" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>6</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>5</v>
       </c>
       <c r="D126" t="s">
         <v>5</v>
@@ -4116,8 +4116,8 @@
         <v>1</v>
       </c>
       <c r="C127" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>7</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>6</v>
       </c>
       <c r="D127" t="s">
         <v>5</v>
@@ -4135,8 +4135,8 @@
         <v>1</v>
       </c>
       <c r="C128" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>1</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>7</v>
       </c>
       <c r="D128" t="s">
         <v>5</v>
@@ -4154,8 +4154,8 @@
         <v>1</v>
       </c>
       <c r="C129" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>1</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>7</v>
       </c>
       <c r="D129" t="s">
         <v>6</v>
@@ -4173,8 +4173,8 @@
         <v>2</v>
       </c>
       <c r="C130" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D130" t="s">
         <v>5</v>
@@ -4192,8 +4192,8 @@
         <v>2</v>
       </c>
       <c r="C131" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D131" t="s">
         <v>7</v>
@@ -4211,8 +4211,8 @@
         <v>2</v>
       </c>
       <c r="C132" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D132" t="s">
         <v>6</v>
@@ -4230,8 +4230,8 @@
         <v>2</v>
       </c>
       <c r="C133" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D133" t="s">
         <v>7</v>
@@ -4249,8 +4249,8 @@
         <v>2</v>
       </c>
       <c r="C134" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D134" t="s">
         <v>5</v>
@@ -4268,8 +4268,8 @@
         <v>2</v>
       </c>
       <c r="C135" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D135" t="s">
         <v>6</v>
@@ -4287,8 +4287,8 @@
         <v>2</v>
       </c>
       <c r="C136" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
@@ -4306,8 +4306,8 @@
         <v>2</v>
       </c>
       <c r="C137" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D137" t="s">
         <v>5</v>
@@ -4325,8 +4325,8 @@
         <v>2</v>
       </c>
       <c r="C138" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D138" t="s">
         <v>5</v>
@@ -4344,8 +4344,8 @@
         <v>2</v>
       </c>
       <c r="C139" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>6</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>5</v>
       </c>
       <c r="D139" t="s">
         <v>5</v>
@@ -4363,8 +4363,8 @@
         <v>2</v>
       </c>
       <c r="C140" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>7</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>6</v>
       </c>
       <c r="D140" t="s">
         <v>5</v>
@@ -4382,8 +4382,8 @@
         <v>2</v>
       </c>
       <c r="C141" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>7</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>6</v>
       </c>
       <c r="D141" t="s">
         <v>6</v>
@@ -4401,8 +4401,8 @@
         <v>3</v>
       </c>
       <c r="C142" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D142" t="s">
         <v>5</v>
@@ -4420,8 +4420,8 @@
         <v>3</v>
       </c>
       <c r="C143" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D143" t="s">
         <v>7</v>
@@ -4439,8 +4439,8 @@
         <v>3</v>
       </c>
       <c r="C144" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
@@ -4458,8 +4458,8 @@
         <v>3</v>
       </c>
       <c r="C145" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D145" t="s">
         <v>5</v>
@@ -4477,8 +4477,8 @@
         <v>3</v>
       </c>
       <c r="C146" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D146" t="s">
         <v>8</v>
@@ -4496,8 +4496,8 @@
         <v>3</v>
       </c>
       <c r="C147" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D147" t="s">
         <v>7</v>
@@ -4515,8 +4515,8 @@
         <v>3</v>
       </c>
       <c r="C148" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D148" t="s">
         <v>5</v>
@@ -4534,8 +4534,8 @@
         <v>3</v>
       </c>
       <c r="C149" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D149" t="s">
         <v>5</v>
@@ -4553,8 +4553,8 @@
         <v>3</v>
       </c>
       <c r="C150" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D150" t="s">
         <v>5</v>
@@ -4572,8 +4572,8 @@
         <v>3</v>
       </c>
       <c r="C151" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D151" t="s">
         <v>5</v>
@@ -4591,8 +4591,8 @@
         <v>3</v>
       </c>
       <c r="C152" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>6</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>5</v>
       </c>
       <c r="D152" t="s">
         <v>5</v>
@@ -4610,8 +4610,8 @@
         <v>3</v>
       </c>
       <c r="C153" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>7</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>6</v>
       </c>
       <c r="D153" t="s">
         <v>5</v>
@@ -4629,8 +4629,8 @@
         <v>4</v>
       </c>
       <c r="C154" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D154" t="s">
         <v>5</v>
@@ -4648,8 +4648,8 @@
         <v>4</v>
       </c>
       <c r="C155" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D155" t="s">
         <v>9</v>
@@ -4667,8 +4667,8 @@
         <v>4</v>
       </c>
       <c r="C156" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D156" t="s">
         <v>7</v>
@@ -4686,8 +4686,8 @@
         <v>4</v>
       </c>
       <c r="C157" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D157" t="s">
         <v>5</v>
@@ -4705,8 +4705,8 @@
         <v>4</v>
       </c>
       <c r="C158" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D158" t="s">
         <v>9</v>
@@ -4724,8 +4724,8 @@
         <v>4</v>
       </c>
       <c r="C159" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D159" t="s">
         <v>7</v>
@@ -4743,8 +4743,8 @@
         <v>4</v>
       </c>
       <c r="C160" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D160" t="s">
         <v>7</v>
@@ -4762,8 +4762,8 @@
         <v>4</v>
       </c>
       <c r="C161" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D161" t="s">
         <v>7</v>
@@ -4781,8 +4781,8 @@
         <v>4</v>
       </c>
       <c r="C162" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D162" t="s">
         <v>5</v>
@@ -4800,8 +4800,8 @@
         <v>4</v>
       </c>
       <c r="C163" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D163" t="s">
         <v>9</v>
@@ -4819,8 +4819,8 @@
         <v>4</v>
       </c>
       <c r="C164" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D164" t="s">
         <v>7</v>
@@ -4838,8 +4838,8 @@
         <v>4</v>
       </c>
       <c r="C165" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D165" t="s">
         <v>7</v>
@@ -4857,8 +4857,8 @@
         <v>4</v>
       </c>
       <c r="C166" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>6</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>5</v>
       </c>
       <c r="D166" t="s">
         <v>9</v>
@@ -4876,8 +4876,8 @@
         <v>4</v>
       </c>
       <c r="C167" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>7</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>6</v>
       </c>
       <c r="D167" t="s">
         <v>9</v>
@@ -4895,8 +4895,8 @@
         <v>4</v>
       </c>
       <c r="C168" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>1</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>7</v>
       </c>
       <c r="D168" t="s">
         <v>9</v>
@@ -4914,8 +4914,8 @@
         <v>5</v>
       </c>
       <c r="C169" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D169" t="s">
         <v>5</v>
@@ -4933,8 +4933,8 @@
         <v>5</v>
       </c>
       <c r="C170" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D170" t="s">
         <v>9</v>
@@ -4952,8 +4952,8 @@
         <v>5</v>
       </c>
       <c r="C171" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D171" t="s">
         <v>7</v>
@@ -4971,8 +4971,8 @@
         <v>5</v>
       </c>
       <c r="C172" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D172" t="s">
         <v>7</v>
@@ -4990,8 +4990,8 @@
         <v>5</v>
       </c>
       <c r="C173" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D173" t="s">
         <v>9</v>
@@ -5009,8 +5009,8 @@
         <v>5</v>
       </c>
       <c r="C174" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D174" t="s">
         <v>5</v>
@@ -5028,8 +5028,8 @@
         <v>5</v>
       </c>
       <c r="C175" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
@@ -5047,8 +5047,8 @@
         <v>5</v>
       </c>
       <c r="C176" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D176" t="s">
         <v>5</v>
@@ -5066,8 +5066,8 @@
         <v>5</v>
       </c>
       <c r="C177" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D177" t="s">
         <v>7</v>
@@ -5086,8 +5086,8 @@
         <v>5</v>
       </c>
       <c r="C178" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D178" t="s">
         <v>7</v>
@@ -5105,8 +5105,8 @@
         <v>5</v>
       </c>
       <c r="C179" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>6</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>5</v>
       </c>
       <c r="D179" t="s">
         <v>5</v>
@@ -5124,8 +5124,8 @@
         <v>5</v>
       </c>
       <c r="C180" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>6</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>5</v>
       </c>
       <c r="D180" t="s">
         <v>7</v>
@@ -5143,8 +5143,8 @@
         <v>5</v>
       </c>
       <c r="C181" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>7</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>6</v>
       </c>
       <c r="D181" t="s">
         <v>6</v>
@@ -5162,8 +5162,8 @@
         <v>6</v>
       </c>
       <c r="C182" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D182" t="s">
         <v>5</v>
@@ -5181,8 +5181,8 @@
         <v>6</v>
       </c>
       <c r="C183" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D183" t="s">
         <v>9</v>
@@ -5200,8 +5200,8 @@
         <v>6</v>
       </c>
       <c r="C184" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D184" t="s">
         <v>7</v>
@@ -5219,8 +5219,8 @@
         <v>6</v>
       </c>
       <c r="C185" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D185" t="s">
         <v>5</v>
@@ -5238,8 +5238,8 @@
         <v>6</v>
       </c>
       <c r="C186" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D186" t="s">
         <v>7</v>
@@ -5257,8 +5257,8 @@
         <v>6</v>
       </c>
       <c r="C187" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D187" t="s">
         <v>7</v>
@@ -5276,8 +5276,8 @@
         <v>6</v>
       </c>
       <c r="C188" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D188" t="s">
         <v>5</v>
@@ -5295,8 +5295,8 @@
         <v>6</v>
       </c>
       <c r="C189" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D189" t="s">
         <v>7</v>
@@ -5314,8 +5314,8 @@
         <v>6</v>
       </c>
       <c r="C190" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D190" t="s">
         <v>7</v>
@@ -5333,8 +5333,8 @@
         <v>6</v>
       </c>
       <c r="C191" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D191" t="s">
         <v>5</v>
@@ -5352,8 +5352,8 @@
         <v>6</v>
       </c>
       <c r="C192" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D192" t="s">
         <v>7</v>
@@ -5371,8 +5371,8 @@
         <v>6</v>
       </c>
       <c r="C193" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>6</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>5</v>
       </c>
       <c r="D193" t="s">
         <v>9</v>
@@ -5391,8 +5391,8 @@
         <v>6</v>
       </c>
       <c r="C194" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>7</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>6</v>
       </c>
       <c r="D194" t="s">
         <v>9</v>
@@ -5411,8 +5411,8 @@
         <v>7</v>
       </c>
       <c r="C195" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D195" t="s">
         <v>5</v>
@@ -5430,8 +5430,8 @@
         <v>7</v>
       </c>
       <c r="C196" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D196" t="s">
         <v>7</v>
@@ -5449,8 +5449,8 @@
         <v>7</v>
       </c>
       <c r="C197" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>2</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
       </c>
       <c r="D197" t="s">
         <v>7</v>
@@ -5468,8 +5468,8 @@
         <v>7</v>
       </c>
       <c r="C198" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D198" t="s">
         <v>5</v>
@@ -5487,8 +5487,8 @@
         <v>7</v>
       </c>
       <c r="C199" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>3</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
       </c>
       <c r="D199" t="s">
         <v>7</v>
@@ -5506,8 +5506,8 @@
         <v>7</v>
       </c>
       <c r="C200" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D200" t="s">
         <v>5</v>
@@ -5525,8 +5525,8 @@
         <v>7</v>
       </c>
       <c r="C201" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D201" t="s">
         <v>7</v>
@@ -5544,8 +5544,8 @@
         <v>7</v>
       </c>
       <c r="C202" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>4</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
       </c>
       <c r="D202" t="s">
         <v>7</v>
@@ -5563,8 +5563,8 @@
         <v>7</v>
       </c>
       <c r="C203" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D203" t="s">
         <v>7</v>
@@ -5582,8 +5582,8 @@
         <v>7</v>
       </c>
       <c r="C204" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>5</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>4</v>
       </c>
       <c r="D204" t="s">
         <v>7</v>
@@ -5601,8 +5601,8 @@
         <v>7</v>
       </c>
       <c r="C205" s="6">
-        <f>WEEKDAY(Table1[[#This Row],[date]],1)</f>
-        <v>6</v>
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>5</v>
       </c>
       <c r="D205" t="s">
         <v>9</v>

--- a/deep_work_tracker.xlsx
+++ b/deep_work_tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22616"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_1be7\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA863547-7F39-4D56-BEA3-66A983C6EE9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EF1826D-C711-4B98-A690-0AB2B98A85E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <pivotCaches>
-    <pivotCache cacheId="824" r:id="rId3"/>
+    <pivotCache cacheId="127" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="18">
   <si>
     <t>date</t>
   </si>
@@ -48,10 +48,16 @@
     <t>type</t>
   </si>
   <si>
+    <t>subtype</t>
+  </si>
+  <si>
     <t>minutes</t>
   </si>
   <si>
     <t>Professional Development</t>
+  </si>
+  <si>
+    <t>undefined</t>
   </si>
   <si>
     <t>Learning Project</t>
@@ -64,6 +70,12 @@
   </si>
   <si>
     <t>Agile Data Science</t>
+  </si>
+  <si>
+    <t>Personal Tracker</t>
+  </si>
+  <si>
+    <t>Mid-February Cleanup</t>
   </si>
   <si>
     <t>Sum of Minutes</t>
@@ -1224,7 +1236,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CA815B1-E5B6-4B97-8C50-0B7D5A8F8A22}" name="PivotTable1" cacheId="824" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5CA815B1-E5B6-4B97-8C50-0B7D5A8F8A22}" name="PivotTable1" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -1384,9 +1396,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85FFF903-AA0E-4298-AE2B-97A5AB99B361}" name="Table1" displayName="Table1" ref="A1:E205" totalsRowShown="0">
-  <autoFilter ref="A1:E205" xr:uid="{9CBD4DF3-A11B-4E40-98D0-42DA6A678FB9}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85FFF903-AA0E-4298-AE2B-97A5AB99B361}" name="Table1" displayName="Table1" ref="A1:F211" totalsRowShown="0">
+  <autoFilter ref="A1:F211" xr:uid="{9CBD4DF3-A11B-4E40-98D0-42DA6A678FB9}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{FDC306A7-EC88-4E73-92A7-FCD09262E9C4}" name="date"/>
     <tableColumn id="4" xr3:uid="{0DFB1127-A0F3-4904-9101-27E6ECA45752}" name="week_number" dataDxfId="1">
       <calculatedColumnFormula>WEEKNUM(Table1[[#This Row],[date]], 2)</calculatedColumnFormula>
@@ -1395,6 +1407,7 @@
       <calculatedColumnFormula>WEEKDAY(Table1[[#This Row],[date]],2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{3B25CC6F-76FE-4ECB-A750-D7C3DA12CB4C}" name="type"/>
+    <tableColumn id="6" xr3:uid="{61ECEF4E-4E8C-4AB5-9795-A28923CA46E4}" name="subtype"/>
     <tableColumn id="3" xr3:uid="{34C477EB-9014-4074-ADDD-A290B985F997}" name="minutes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1698,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E205"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212:XFD219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1709,10 +1722,11 @@
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1728,8 +1742,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>43743</v>
       </c>
@@ -1742,13 +1759,16 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>43743</v>
       </c>
@@ -1761,13 +1781,16 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>43745</v>
       </c>
@@ -1780,13 +1803,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>43745</v>
       </c>
@@ -1799,13 +1825,16 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>43745</v>
       </c>
@@ -1818,13 +1847,16 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>43746</v>
       </c>
@@ -1837,13 +1869,16 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>43746</v>
       </c>
@@ -1856,13 +1891,16 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>43746</v>
       </c>
@@ -1875,13 +1913,16 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>43747</v>
       </c>
@@ -1894,13 +1935,16 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>43747</v>
       </c>
@@ -1913,13 +1957,16 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>43747</v>
       </c>
@@ -1932,13 +1979,16 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>43748</v>
       </c>
@@ -1951,13 +2001,16 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>43748</v>
       </c>
@@ -1970,13 +2023,16 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>43748</v>
       </c>
@@ -1989,13 +2045,16 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>43749</v>
       </c>
@@ -2008,13 +2067,16 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>43749</v>
       </c>
@@ -2027,13 +2089,16 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>43750</v>
       </c>
@@ -2046,13 +2111,16 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>43750</v>
       </c>
@@ -2065,13 +2133,16 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>43752</v>
       </c>
@@ -2084,13 +2155,16 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>43752</v>
       </c>
@@ -2103,13 +2177,16 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>43753</v>
       </c>
@@ -2122,13 +2199,16 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>43753</v>
       </c>
@@ -2141,13 +2221,16 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>43753</v>
       </c>
@@ -2160,13 +2243,16 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>43755</v>
       </c>
@@ -2179,13 +2265,16 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>43755</v>
       </c>
@@ -2198,13 +2287,16 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26">
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>43756</v>
       </c>
@@ -2217,13 +2309,16 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>43756</v>
       </c>
@@ -2236,13 +2331,16 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>43757</v>
       </c>
@@ -2255,13 +2353,16 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>43759</v>
       </c>
@@ -2274,13 +2375,16 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>43759</v>
       </c>
@@ -2293,13 +2397,16 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31">
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>43760</v>
       </c>
@@ -2312,13 +2419,16 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>43760</v>
       </c>
@@ -2331,13 +2441,16 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33">
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>43761</v>
       </c>
@@ -2350,13 +2463,16 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>43761</v>
       </c>
@@ -2369,13 +2485,16 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>43761</v>
       </c>
@@ -2388,13 +2507,16 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>43766</v>
       </c>
@@ -2407,13 +2529,16 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37">
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>43766</v>
       </c>
@@ -2426,13 +2551,16 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>43766</v>
       </c>
@@ -2445,13 +2573,16 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>43767</v>
       </c>
@@ -2464,13 +2595,16 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40">
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>43767</v>
       </c>
@@ -2483,13 +2617,16 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>43767</v>
       </c>
@@ -2502,13 +2639,16 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>43768</v>
       </c>
@@ -2521,13 +2661,16 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>43768</v>
       </c>
@@ -2540,13 +2683,16 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44">
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43769</v>
       </c>
@@ -2559,13 +2705,16 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>43769</v>
       </c>
@@ -2578,13 +2727,16 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>43770</v>
       </c>
@@ -2597,13 +2749,16 @@
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47">
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>43771</v>
       </c>
@@ -2616,13 +2771,16 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48">
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>43772</v>
       </c>
@@ -2635,13 +2793,16 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49">
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>43773</v>
       </c>
@@ -2654,13 +2815,16 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>43773</v>
       </c>
@@ -2673,13 +2837,16 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51">
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>43774</v>
       </c>
@@ -2692,13 +2859,16 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52">
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>43774</v>
       </c>
@@ -2711,13 +2881,16 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53">
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>43775</v>
       </c>
@@ -2730,13 +2903,16 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>43775</v>
       </c>
@@ -2749,13 +2925,16 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55">
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>43775</v>
       </c>
@@ -2768,13 +2947,16 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>43776</v>
       </c>
@@ -2787,13 +2969,16 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57">
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>43777</v>
       </c>
@@ -2806,13 +2991,16 @@
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>43778</v>
       </c>
@@ -2825,13 +3013,16 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59">
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>43780</v>
       </c>
@@ -2844,13 +3035,16 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60">
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>43781</v>
       </c>
@@ -2863,13 +3057,16 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61">
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>43781</v>
       </c>
@@ -2882,13 +3079,16 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62">
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>43781</v>
       </c>
@@ -2901,13 +3101,16 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63">
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>43782</v>
       </c>
@@ -2920,13 +3123,16 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>43782</v>
       </c>
@@ -2939,13 +3145,16 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65">
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>43782</v>
       </c>
@@ -2958,13 +3167,16 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66">
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>43783</v>
       </c>
@@ -2977,13 +3189,16 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>43784</v>
       </c>
@@ -2996,13 +3211,16 @@
         <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>43784</v>
       </c>
@@ -3015,13 +3233,16 @@
         <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69">
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>43785</v>
       </c>
@@ -3034,13 +3255,16 @@
         <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70">
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>43787</v>
       </c>
@@ -3053,13 +3277,16 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>43787</v>
       </c>
@@ -3072,13 +3299,16 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72">
         <v>180</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>43788</v>
       </c>
@@ -3091,13 +3321,16 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73">
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73">
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>43788</v>
       </c>
@@ -3110,13 +3343,16 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74">
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>43788</v>
       </c>
@@ -3129,13 +3365,16 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75">
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>43789</v>
       </c>
@@ -3148,13 +3387,16 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76">
+        <v>6</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76">
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>43789</v>
       </c>
@@ -3167,13 +3409,16 @@
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77">
+        <v>9</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77">
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>43789</v>
       </c>
@@ -3186,13 +3431,16 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>5</v>
-      </c>
-      <c r="E78">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78">
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>43792</v>
       </c>
@@ -3205,13 +3453,16 @@
         <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>5</v>
-      </c>
-      <c r="E79">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>43793</v>
       </c>
@@ -3224,13 +3475,16 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80">
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>43794</v>
       </c>
@@ -3243,13 +3497,16 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>43794</v>
       </c>
@@ -3262,13 +3519,16 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>43795</v>
       </c>
@@ -3281,13 +3541,16 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>43795</v>
       </c>
@@ -3300,13 +3563,16 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84">
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>43795</v>
       </c>
@@ -3319,13 +3585,16 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85">
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>43796</v>
       </c>
@@ -3338,13 +3607,16 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86">
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86">
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>43797</v>
       </c>
@@ -3357,13 +3629,16 @@
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>5</v>
-      </c>
-      <c r="E87">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87">
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>43801</v>
       </c>
@@ -3376,13 +3651,16 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88">
+        <v>6</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88">
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>43801</v>
       </c>
@@ -3395,13 +3673,16 @@
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89">
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>43801</v>
       </c>
@@ -3414,13 +3695,16 @@
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90">
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>43802</v>
       </c>
@@ -3433,13 +3717,16 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91">
+        <v>6</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91">
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>43802</v>
       </c>
@@ -3452,13 +3739,16 @@
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92">
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>43802</v>
       </c>
@@ -3471,13 +3761,16 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93">
+        <v>9</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93">
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>43803</v>
       </c>
@@ -3490,13 +3783,16 @@
         <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94">
+        <v>6</v>
+      </c>
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94">
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>43803</v>
       </c>
@@ -3509,13 +3805,16 @@
         <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95">
         <v>120</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>43803</v>
       </c>
@@ -3528,13 +3827,16 @@
         <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96">
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>43804</v>
       </c>
@@ -3547,13 +3849,16 @@
         <v>4</v>
       </c>
       <c r="D97" t="s">
-        <v>5</v>
-      </c>
-      <c r="E97">
+        <v>6</v>
+      </c>
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97">
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>43804</v>
       </c>
@@ -3566,13 +3871,16 @@
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98">
         <v>150</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>43804</v>
       </c>
@@ -3585,13 +3893,16 @@
         <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99">
+        <v>9</v>
+      </c>
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99">
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>43805</v>
       </c>
@@ -3604,13 +3915,16 @@
         <v>5</v>
       </c>
       <c r="D100" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100">
+        <v>6</v>
+      </c>
+      <c r="E100" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100">
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>43805</v>
       </c>
@@ -3623,13 +3937,16 @@
         <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101">
+        <v>9</v>
+      </c>
+      <c r="E101" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101">
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>43805</v>
       </c>
@@ -3642,13 +3959,16 @@
         <v>5</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102">
+        <v>10</v>
+      </c>
+      <c r="E102" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102">
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>43806</v>
       </c>
@@ -3661,14 +3981,17 @@
         <v>6</v>
       </c>
       <c r="D103" t="s">
-        <v>5</v>
-      </c>
-      <c r="E103">
+        <v>6</v>
+      </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103">
         <f>4*60</f>
         <v>240</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>43808</v>
       </c>
@@ -3681,13 +4004,16 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>5</v>
-      </c>
-      <c r="E104">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104">
         <v>60</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:6">
       <c r="A105" s="1">
         <v>43808</v>
       </c>
@@ -3700,13 +4026,16 @@
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105">
+        <v>9</v>
+      </c>
+      <c r="E105" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105">
         <v>180</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>43810</v>
       </c>
@@ -3719,13 +4048,16 @@
         <v>3</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106">
+        <v>9</v>
+      </c>
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106">
         <v>180</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:6">
       <c r="A107" s="1">
         <v>43811</v>
       </c>
@@ -3738,13 +4070,16 @@
         <v>4</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107">
+        <v>9</v>
+      </c>
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107">
         <v>180</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:6">
       <c r="A108" s="1">
         <v>43815</v>
       </c>
@@ -3757,13 +4092,16 @@
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>5</v>
-      </c>
-      <c r="E108">
+        <v>6</v>
+      </c>
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108">
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:6">
       <c r="A109" s="1">
         <v>43815</v>
       </c>
@@ -3776,13 +4114,16 @@
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109">
+        <v>9</v>
+      </c>
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109">
         <v>180</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:6">
       <c r="A110" s="1">
         <v>43816</v>
       </c>
@@ -3795,13 +4136,16 @@
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>5</v>
-      </c>
-      <c r="E110">
+        <v>6</v>
+      </c>
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110">
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:6">
       <c r="A111" s="1">
         <v>43816</v>
       </c>
@@ -3814,13 +4158,16 @@
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
-      </c>
-      <c r="E111">
+        <v>9</v>
+      </c>
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111">
         <v>180</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:6">
       <c r="A112" s="1">
         <v>43817</v>
       </c>
@@ -3833,13 +4180,16 @@
         <v>3</v>
       </c>
       <c r="D112" t="s">
-        <v>5</v>
-      </c>
-      <c r="E112">
+        <v>6</v>
+      </c>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112">
         <v>60</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:6">
       <c r="A113" s="1">
         <v>43817</v>
       </c>
@@ -3852,13 +4202,16 @@
         <v>3</v>
       </c>
       <c r="D113" t="s">
-        <v>7</v>
-      </c>
-      <c r="E113">
+        <v>9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113">
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:6">
       <c r="A114" s="1">
         <v>43817</v>
       </c>
@@ -3871,13 +4224,16 @@
         <v>3</v>
       </c>
       <c r="D114" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114">
+        <v>10</v>
+      </c>
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114">
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>43818</v>
       </c>
@@ -3890,14 +4246,17 @@
         <v>4</v>
       </c>
       <c r="D115" t="s">
-        <v>5</v>
-      </c>
-      <c r="E115">
+        <v>6</v>
+      </c>
+      <c r="E115" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115">
         <f>60+30</f>
         <v>90</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:6">
       <c r="A116" s="1">
         <v>43817</v>
       </c>
@@ -3910,13 +4269,16 @@
         <v>3</v>
       </c>
       <c r="D116" t="s">
-        <v>5</v>
-      </c>
-      <c r="E116">
+        <v>6</v>
+      </c>
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116">
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>43818</v>
       </c>
@@ -3929,13 +4291,16 @@
         <v>4</v>
       </c>
       <c r="D117" t="s">
-        <v>7</v>
-      </c>
-      <c r="E117">
+        <v>9</v>
+      </c>
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117">
         <v>180</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>43819</v>
       </c>
@@ -3948,13 +4313,16 @@
         <v>5</v>
       </c>
       <c r="D118" t="s">
-        <v>5</v>
-      </c>
-      <c r="E118">
+        <v>6</v>
+      </c>
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118">
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:6">
       <c r="A119" s="1">
         <v>43819</v>
       </c>
@@ -3967,13 +4335,16 @@
         <v>5</v>
       </c>
       <c r="D119" t="s">
-        <v>7</v>
-      </c>
-      <c r="E119">
+        <v>9</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119">
         <v>180</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
         <v>43821</v>
       </c>
@@ -3986,13 +4357,16 @@
         <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>5</v>
-      </c>
-      <c r="E120">
+        <v>6</v>
+      </c>
+      <c r="E120" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120">
         <v>60</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:6">
       <c r="A121" s="1">
         <v>43827</v>
       </c>
@@ -4005,14 +4379,17 @@
         <v>6</v>
       </c>
       <c r="D121" t="s">
-        <v>5</v>
-      </c>
-      <c r="E121">
+        <v>6</v>
+      </c>
+      <c r="E121" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121">
         <f>72+60</f>
         <v>132</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
         <v>43828</v>
       </c>
@@ -4025,13 +4402,16 @@
         <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>5</v>
-      </c>
-      <c r="E122">
+        <v>6</v>
+      </c>
+      <c r="E122" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122">
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>43829</v>
       </c>
@@ -4044,13 +4424,16 @@
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>5</v>
-      </c>
-      <c r="E123">
+        <v>6</v>
+      </c>
+      <c r="E123" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123">
         <v>78</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:6">
       <c r="A124" s="1">
         <v>43832</v>
       </c>
@@ -4063,13 +4446,16 @@
         <v>4</v>
       </c>
       <c r="D124" t="s">
-        <v>5</v>
-      </c>
-      <c r="E124">
+        <v>6</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124">
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:6">
       <c r="A125" s="1">
         <v>43832</v>
       </c>
@@ -4082,13 +4468,16 @@
         <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
-      </c>
-      <c r="E125">
+        <v>9</v>
+      </c>
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125">
         <v>180</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:6">
       <c r="A126" s="1">
         <v>43833</v>
       </c>
@@ -4101,13 +4490,16 @@
         <v>5</v>
       </c>
       <c r="D126" t="s">
-        <v>5</v>
-      </c>
-      <c r="E126">
+        <v>6</v>
+      </c>
+      <c r="E126" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126">
         <v>60</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>43834</v>
       </c>
@@ -4120,13 +4512,16 @@
         <v>6</v>
       </c>
       <c r="D127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E127">
+        <v>6</v>
+      </c>
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127">
         <v>78</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:6">
       <c r="A128" s="1">
         <v>43835</v>
       </c>
@@ -4139,13 +4534,16 @@
         <v>7</v>
       </c>
       <c r="D128" t="s">
-        <v>5</v>
-      </c>
-      <c r="E128">
+        <v>6</v>
+      </c>
+      <c r="E128" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128">
         <v>70</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>43835</v>
       </c>
@@ -4158,13 +4556,16 @@
         <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>6</v>
-      </c>
-      <c r="E129">
+        <v>8</v>
+      </c>
+      <c r="E129" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129">
         <v>66</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>43836</v>
       </c>
@@ -4177,13 +4578,16 @@
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>5</v>
-      </c>
-      <c r="E130">
+        <v>6</v>
+      </c>
+      <c r="E130" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130">
         <v>73</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>43836</v>
       </c>
@@ -4196,13 +4600,16 @@
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>7</v>
-      </c>
-      <c r="E131">
+        <v>9</v>
+      </c>
+      <c r="E131" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131">
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>43837</v>
       </c>
@@ -4215,13 +4622,16 @@
         <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>6</v>
-      </c>
-      <c r="E132">
+        <v>8</v>
+      </c>
+      <c r="E132" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132">
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>43837</v>
       </c>
@@ -4234,13 +4644,16 @@
         <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>7</v>
-      </c>
-      <c r="E133">
+        <v>9</v>
+      </c>
+      <c r="E133" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133">
         <v>180</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:6">
       <c r="A134" s="1">
         <v>43837</v>
       </c>
@@ -4253,13 +4666,16 @@
         <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>5</v>
-      </c>
-      <c r="E134">
+        <v>6</v>
+      </c>
+      <c r="E134" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134">
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:6">
       <c r="A135" s="1">
         <v>43838</v>
       </c>
@@ -4272,13 +4688,16 @@
         <v>3</v>
       </c>
       <c r="D135" t="s">
-        <v>6</v>
-      </c>
-      <c r="E135">
+        <v>8</v>
+      </c>
+      <c r="E135" t="s">
+        <v>7</v>
+      </c>
+      <c r="F135">
         <v>55</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:6">
       <c r="A136" s="1">
         <v>43839</v>
       </c>
@@ -4291,13 +4710,16 @@
         <v>4</v>
       </c>
       <c r="D136" t="s">
-        <v>7</v>
-      </c>
-      <c r="E136">
+        <v>9</v>
+      </c>
+      <c r="E136" t="s">
+        <v>7</v>
+      </c>
+      <c r="F136">
         <v>120</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:6">
       <c r="A137" s="1">
         <v>43839</v>
       </c>
@@ -4310,13 +4732,16 @@
         <v>4</v>
       </c>
       <c r="D137" t="s">
-        <v>5</v>
-      </c>
-      <c r="E137">
+        <v>6</v>
+      </c>
+      <c r="E137" t="s">
+        <v>7</v>
+      </c>
+      <c r="F137">
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:6">
       <c r="A138" s="1">
         <v>43838</v>
       </c>
@@ -4329,13 +4754,16 @@
         <v>3</v>
       </c>
       <c r="D138" t="s">
-        <v>5</v>
-      </c>
-      <c r="E138">
+        <v>6</v>
+      </c>
+      <c r="E138" t="s">
+        <v>7</v>
+      </c>
+      <c r="F138">
         <v>37</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:6">
       <c r="A139" s="1">
         <v>43840</v>
       </c>
@@ -4348,13 +4776,16 @@
         <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>5</v>
-      </c>
-      <c r="E139">
+        <v>6</v>
+      </c>
+      <c r="E139" t="s">
+        <v>7</v>
+      </c>
+      <c r="F139">
         <v>58</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>43841</v>
       </c>
@@ -4367,13 +4798,16 @@
         <v>6</v>
       </c>
       <c r="D140" t="s">
-        <v>5</v>
-      </c>
-      <c r="E140">
+        <v>6</v>
+      </c>
+      <c r="E140" t="s">
+        <v>7</v>
+      </c>
+      <c r="F140">
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:6">
       <c r="A141" s="1">
         <v>43841</v>
       </c>
@@ -4386,13 +4820,16 @@
         <v>6</v>
       </c>
       <c r="D141" t="s">
-        <v>6</v>
-      </c>
-      <c r="E141">
+        <v>8</v>
+      </c>
+      <c r="E141" t="s">
+        <v>7</v>
+      </c>
+      <c r="F141">
         <v>47</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>43843</v>
       </c>
@@ -4405,13 +4842,16 @@
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>5</v>
-      </c>
-      <c r="E142">
+        <v>6</v>
+      </c>
+      <c r="E142" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142">
         <v>65</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:6">
       <c r="A143" s="1">
         <v>43843</v>
       </c>
@@ -4424,13 +4864,16 @@
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>7</v>
-      </c>
-      <c r="E143">
+        <v>9</v>
+      </c>
+      <c r="E143" t="s">
+        <v>7</v>
+      </c>
+      <c r="F143">
         <v>180</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>43843</v>
       </c>
@@ -4443,13 +4886,16 @@
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>8</v>
-      </c>
-      <c r="E144">
+        <v>10</v>
+      </c>
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144">
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:6">
       <c r="A145" s="1">
         <v>43844</v>
       </c>
@@ -4462,13 +4908,16 @@
         <v>2</v>
       </c>
       <c r="D145" t="s">
-        <v>5</v>
-      </c>
-      <c r="E145">
+        <v>6</v>
+      </c>
+      <c r="E145" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145">
         <v>60</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:6">
       <c r="A146" s="1">
         <v>43844</v>
       </c>
@@ -4481,13 +4930,16 @@
         <v>2</v>
       </c>
       <c r="D146" t="s">
-        <v>8</v>
-      </c>
-      <c r="E146">
+        <v>10</v>
+      </c>
+      <c r="E146" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146">
         <v>60</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:6">
       <c r="A147" s="1">
         <v>43844</v>
       </c>
@@ -4500,13 +4952,16 @@
         <v>2</v>
       </c>
       <c r="D147" t="s">
-        <v>7</v>
-      </c>
-      <c r="E147">
+        <v>9</v>
+      </c>
+      <c r="E147" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147">
         <v>180</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:6">
       <c r="A148" s="1">
         <v>43845</v>
       </c>
@@ -4519,13 +4974,16 @@
         <v>3</v>
       </c>
       <c r="D148" t="s">
-        <v>5</v>
-      </c>
-      <c r="E148">
+        <v>6</v>
+      </c>
+      <c r="E148" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148">
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:6">
       <c r="A149" s="1">
         <v>43845</v>
       </c>
@@ -4538,13 +4996,16 @@
         <v>3</v>
       </c>
       <c r="D149" t="s">
-        <v>5</v>
-      </c>
-      <c r="E149">
+        <v>6</v>
+      </c>
+      <c r="E149" t="s">
+        <v>7</v>
+      </c>
+      <c r="F149">
         <v>40</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:6">
       <c r="A150" s="1">
         <v>43846</v>
       </c>
@@ -4557,13 +5018,16 @@
         <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>5</v>
-      </c>
-      <c r="E150">
+        <v>6</v>
+      </c>
+      <c r="E150" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150">
         <v>37</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:6">
       <c r="A151" s="1">
         <v>43846</v>
       </c>
@@ -4576,13 +5040,16 @@
         <v>4</v>
       </c>
       <c r="D151" t="s">
-        <v>5</v>
-      </c>
-      <c r="E151">
+        <v>6</v>
+      </c>
+      <c r="E151" t="s">
+        <v>7</v>
+      </c>
+      <c r="F151">
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:6">
       <c r="A152" s="1">
         <v>43847</v>
       </c>
@@ -4595,13 +5062,16 @@
         <v>5</v>
       </c>
       <c r="D152" t="s">
-        <v>5</v>
-      </c>
-      <c r="E152">
+        <v>6</v>
+      </c>
+      <c r="E152" t="s">
+        <v>7</v>
+      </c>
+      <c r="F152">
         <v>60</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:6">
       <c r="A153" s="1">
         <v>43848</v>
       </c>
@@ -4614,13 +5084,16 @@
         <v>6</v>
       </c>
       <c r="D153" t="s">
-        <v>5</v>
-      </c>
-      <c r="E153">
+        <v>6</v>
+      </c>
+      <c r="E153" t="s">
+        <v>7</v>
+      </c>
+      <c r="F153">
         <v>44</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:6">
       <c r="A154" s="1">
         <v>43851</v>
       </c>
@@ -4633,13 +5106,16 @@
         <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>5</v>
-      </c>
-      <c r="E154">
+        <v>6</v>
+      </c>
+      <c r="E154" t="s">
+        <v>7</v>
+      </c>
+      <c r="F154">
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:6">
       <c r="A155" s="1">
         <v>43851</v>
       </c>
@@ -4652,13 +5128,16 @@
         <v>2</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
-      </c>
-      <c r="E155">
+        <v>11</v>
+      </c>
+      <c r="E155" t="s">
+        <v>7</v>
+      </c>
+      <c r="F155">
         <v>60</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:6">
       <c r="A156" s="1">
         <v>43851</v>
       </c>
@@ -4671,13 +5150,16 @@
         <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>7</v>
-      </c>
-      <c r="E156">
+        <v>9</v>
+      </c>
+      <c r="E156" t="s">
+        <v>7</v>
+      </c>
+      <c r="F156">
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:6">
       <c r="A157" s="1">
         <v>43852</v>
       </c>
@@ -4690,13 +5172,16 @@
         <v>3</v>
       </c>
       <c r="D157" t="s">
-        <v>5</v>
-      </c>
-      <c r="E157">
+        <v>6</v>
+      </c>
+      <c r="E157" t="s">
+        <v>7</v>
+      </c>
+      <c r="F157">
         <v>60</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:6">
       <c r="A158" s="1">
         <v>43852</v>
       </c>
@@ -4709,13 +5194,16 @@
         <v>3</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
-      </c>
-      <c r="E158">
+        <v>11</v>
+      </c>
+      <c r="E158" t="s">
+        <v>7</v>
+      </c>
+      <c r="F158">
         <v>60</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:6">
       <c r="A159" s="1">
         <v>43852</v>
       </c>
@@ -4728,13 +5216,16 @@
         <v>3</v>
       </c>
       <c r="D159" t="s">
-        <v>7</v>
-      </c>
-      <c r="E159">
+        <v>9</v>
+      </c>
+      <c r="E159" t="s">
+        <v>7</v>
+      </c>
+      <c r="F159">
         <v>90</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:6">
       <c r="A160" s="1">
         <v>43852</v>
       </c>
@@ -4747,13 +5238,16 @@
         <v>3</v>
       </c>
       <c r="D160" t="s">
-        <v>7</v>
-      </c>
-      <c r="E160">
+        <v>9</v>
+      </c>
+      <c r="E160" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160">
         <v>60</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:6">
       <c r="A161" s="1">
         <v>43852</v>
       </c>
@@ -4766,13 +5260,16 @@
         <v>3</v>
       </c>
       <c r="D161" t="s">
-        <v>7</v>
-      </c>
-      <c r="E161">
+        <v>9</v>
+      </c>
+      <c r="E161" t="s">
+        <v>7</v>
+      </c>
+      <c r="F161">
         <v>90</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:6">
       <c r="A162" s="1">
         <v>43853</v>
       </c>
@@ -4785,13 +5282,16 @@
         <v>4</v>
       </c>
       <c r="D162" t="s">
-        <v>5</v>
-      </c>
-      <c r="E162">
+        <v>6</v>
+      </c>
+      <c r="E162" t="s">
+        <v>7</v>
+      </c>
+      <c r="F162">
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:6">
       <c r="A163" s="1">
         <v>43853</v>
       </c>
@@ -4804,13 +5304,16 @@
         <v>4</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163">
+        <v>11</v>
+      </c>
+      <c r="E163" t="s">
+        <v>7</v>
+      </c>
+      <c r="F163">
         <v>60</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:6">
       <c r="A164" s="1">
         <v>43853</v>
       </c>
@@ -4823,13 +5326,16 @@
         <v>4</v>
       </c>
       <c r="D164" t="s">
-        <v>7</v>
-      </c>
-      <c r="E164">
+        <v>9</v>
+      </c>
+      <c r="E164" t="s">
+        <v>7</v>
+      </c>
+      <c r="F164">
         <v>120</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:6">
       <c r="A165" s="1">
         <v>43853</v>
       </c>
@@ -4842,13 +5348,16 @@
         <v>4</v>
       </c>
       <c r="D165" t="s">
-        <v>7</v>
-      </c>
-      <c r="E165">
+        <v>9</v>
+      </c>
+      <c r="E165" t="s">
+        <v>7</v>
+      </c>
+      <c r="F165">
         <v>60</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:6">
       <c r="A166" s="1">
         <v>43854</v>
       </c>
@@ -4861,13 +5370,16 @@
         <v>5</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
-      </c>
-      <c r="E166">
+        <v>11</v>
+      </c>
+      <c r="E166" t="s">
+        <v>7</v>
+      </c>
+      <c r="F166">
         <v>180</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:6">
       <c r="A167" s="1">
         <v>43855</v>
       </c>
@@ -4880,13 +5392,16 @@
         <v>6</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
-      </c>
-      <c r="E167">
+        <v>11</v>
+      </c>
+      <c r="E167" t="s">
+        <v>7</v>
+      </c>
+      <c r="F167">
         <v>60</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:6">
       <c r="A168" s="1">
         <v>43856</v>
       </c>
@@ -4899,13 +5414,16 @@
         <v>7</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
-      </c>
-      <c r="E168">
+        <v>11</v>
+      </c>
+      <c r="E168" t="s">
+        <v>7</v>
+      </c>
+      <c r="F168">
         <v>180</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:6">
       <c r="A169" s="1">
         <v>43857</v>
       </c>
@@ -4918,13 +5436,16 @@
         <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>5</v>
-      </c>
-      <c r="E169">
+        <v>6</v>
+      </c>
+      <c r="E169" t="s">
+        <v>7</v>
+      </c>
+      <c r="F169">
         <v>60</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:6">
       <c r="A170" s="1">
         <v>43857</v>
       </c>
@@ -4937,13 +5458,16 @@
         <v>1</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
-      </c>
-      <c r="E170">
+        <v>11</v>
+      </c>
+      <c r="E170" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170">
         <v>80</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:6">
       <c r="A171" s="1">
         <v>43857</v>
       </c>
@@ -4956,13 +5480,16 @@
         <v>1</v>
       </c>
       <c r="D171" t="s">
-        <v>7</v>
-      </c>
-      <c r="E171">
+        <v>9</v>
+      </c>
+      <c r="E171" t="s">
+        <v>7</v>
+      </c>
+      <c r="F171">
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:6">
       <c r="A172" s="1">
         <v>43857</v>
       </c>
@@ -4975,13 +5502,16 @@
         <v>1</v>
       </c>
       <c r="D172" t="s">
-        <v>7</v>
-      </c>
-      <c r="E172">
+        <v>9</v>
+      </c>
+      <c r="E172" t="s">
+        <v>7</v>
+      </c>
+      <c r="F172">
         <v>120</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:6">
       <c r="A173" s="1">
         <v>43858</v>
       </c>
@@ -4994,13 +5524,16 @@
         <v>2</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
-      </c>
-      <c r="E173">
+        <v>11</v>
+      </c>
+      <c r="E173" t="s">
+        <v>7</v>
+      </c>
+      <c r="F173">
         <v>60</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:6">
       <c r="A174" s="1">
         <v>43858</v>
       </c>
@@ -5013,13 +5546,16 @@
         <v>2</v>
       </c>
       <c r="D174" t="s">
-        <v>5</v>
-      </c>
-      <c r="E174">
+        <v>6</v>
+      </c>
+      <c r="E174" t="s">
+        <v>7</v>
+      </c>
+      <c r="F174">
         <v>45</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:6">
       <c r="A175" s="1">
         <v>43858</v>
       </c>
@@ -5032,13 +5568,16 @@
         <v>2</v>
       </c>
       <c r="D175" t="s">
-        <v>7</v>
-      </c>
-      <c r="E175">
+        <v>9</v>
+      </c>
+      <c r="E175" t="s">
+        <v>7</v>
+      </c>
+      <c r="F175">
         <v>180</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:6">
       <c r="A176" s="1">
         <v>43859</v>
       </c>
@@ -5051,13 +5590,16 @@
         <v>3</v>
       </c>
       <c r="D176" t="s">
-        <v>5</v>
-      </c>
-      <c r="E176">
+        <v>6</v>
+      </c>
+      <c r="E176" t="s">
+        <v>7</v>
+      </c>
+      <c r="F176">
         <v>60</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:6">
       <c r="A177" s="1">
         <v>43859</v>
       </c>
@@ -5070,14 +5612,17 @@
         <v>3</v>
       </c>
       <c r="D177" t="s">
-        <v>7</v>
-      </c>
-      <c r="E177">
+        <v>9</v>
+      </c>
+      <c r="E177" t="s">
+        <v>7</v>
+      </c>
+      <c r="F177">
         <f>60*4</f>
         <v>240</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:6">
       <c r="A178" s="1">
         <v>43860</v>
       </c>
@@ -5090,13 +5635,16 @@
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>7</v>
-      </c>
-      <c r="E178">
+        <v>9</v>
+      </c>
+      <c r="E178" t="s">
+        <v>7</v>
+      </c>
+      <c r="F178">
         <v>180</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:6">
       <c r="A179" s="1">
         <v>43861</v>
       </c>
@@ -5109,13 +5657,16 @@
         <v>5</v>
       </c>
       <c r="D179" t="s">
-        <v>5</v>
-      </c>
-      <c r="E179">
+        <v>6</v>
+      </c>
+      <c r="E179" t="s">
+        <v>7</v>
+      </c>
+      <c r="F179">
         <v>60</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:6">
       <c r="A180" s="1">
         <v>43861</v>
       </c>
@@ -5128,13 +5679,16 @@
         <v>5</v>
       </c>
       <c r="D180" t="s">
-        <v>7</v>
-      </c>
-      <c r="E180">
+        <v>9</v>
+      </c>
+      <c r="E180" t="s">
+        <v>7</v>
+      </c>
+      <c r="F180">
         <v>120</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:6">
       <c r="A181" s="1">
         <v>43862</v>
       </c>
@@ -5147,13 +5701,16 @@
         <v>6</v>
       </c>
       <c r="D181" t="s">
-        <v>6</v>
-      </c>
-      <c r="E181">
+        <v>8</v>
+      </c>
+      <c r="E181" t="s">
+        <v>7</v>
+      </c>
+      <c r="F181">
         <v>135</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:6">
       <c r="A182" s="1">
         <v>43864</v>
       </c>
@@ -5166,13 +5723,16 @@
         <v>1</v>
       </c>
       <c r="D182" t="s">
-        <v>5</v>
-      </c>
-      <c r="E182">
+        <v>6</v>
+      </c>
+      <c r="E182" t="s">
+        <v>7</v>
+      </c>
+      <c r="F182">
         <v>60</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:6">
       <c r="A183" s="1">
         <v>43864</v>
       </c>
@@ -5185,13 +5745,16 @@
         <v>1</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
-      </c>
-      <c r="E183">
+        <v>11</v>
+      </c>
+      <c r="E183" t="s">
+        <v>7</v>
+      </c>
+      <c r="F183">
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:6">
       <c r="A184" s="1">
         <v>43864</v>
       </c>
@@ -5204,13 +5767,16 @@
         <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>7</v>
-      </c>
-      <c r="E184">
+        <v>9</v>
+      </c>
+      <c r="E184" t="s">
+        <v>7</v>
+      </c>
+      <c r="F184">
         <v>120</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:6">
       <c r="A185" s="1">
         <v>43865</v>
       </c>
@@ -5223,13 +5789,16 @@
         <v>2</v>
       </c>
       <c r="D185" t="s">
-        <v>5</v>
-      </c>
-      <c r="E185">
+        <v>6</v>
+      </c>
+      <c r="E185" t="s">
+        <v>7</v>
+      </c>
+      <c r="F185">
         <v>90</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:6">
       <c r="A186" s="1">
         <v>43865</v>
       </c>
@@ -5242,13 +5811,16 @@
         <v>2</v>
       </c>
       <c r="D186" t="s">
-        <v>7</v>
-      </c>
-      <c r="E186">
+        <v>9</v>
+      </c>
+      <c r="E186" t="s">
+        <v>7</v>
+      </c>
+      <c r="F186">
         <v>60</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:6">
       <c r="A187" s="1">
         <v>43865</v>
       </c>
@@ -5261,13 +5833,16 @@
         <v>2</v>
       </c>
       <c r="D187" t="s">
-        <v>7</v>
-      </c>
-      <c r="E187">
+        <v>9</v>
+      </c>
+      <c r="E187" t="s">
+        <v>7</v>
+      </c>
+      <c r="F187">
         <v>180</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:6">
       <c r="A188" s="1">
         <v>43866</v>
       </c>
@@ -5280,13 +5855,16 @@
         <v>3</v>
       </c>
       <c r="D188" t="s">
-        <v>5</v>
-      </c>
-      <c r="E188">
+        <v>6</v>
+      </c>
+      <c r="E188" t="s">
+        <v>7</v>
+      </c>
+      <c r="F188">
         <v>45</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:6">
       <c r="A189" s="1">
         <v>43866</v>
       </c>
@@ -5299,13 +5877,16 @@
         <v>3</v>
       </c>
       <c r="D189" t="s">
-        <v>7</v>
-      </c>
-      <c r="E189">
+        <v>9</v>
+      </c>
+      <c r="E189" t="s">
+        <v>7</v>
+      </c>
+      <c r="F189">
         <v>120</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:6">
       <c r="A190" s="1">
         <v>43866</v>
       </c>
@@ -5318,13 +5899,16 @@
         <v>3</v>
       </c>
       <c r="D190" t="s">
-        <v>7</v>
-      </c>
-      <c r="E190">
+        <v>9</v>
+      </c>
+      <c r="E190" t="s">
+        <v>7</v>
+      </c>
+      <c r="F190">
         <v>55</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:6">
       <c r="A191" s="1">
         <v>43867</v>
       </c>
@@ -5337,13 +5921,16 @@
         <v>4</v>
       </c>
       <c r="D191" t="s">
-        <v>5</v>
-      </c>
-      <c r="E191">
+        <v>6</v>
+      </c>
+      <c r="E191" t="s">
+        <v>7</v>
+      </c>
+      <c r="F191">
         <v>40</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:6">
       <c r="A192" s="1">
         <v>43867</v>
       </c>
@@ -5356,13 +5943,16 @@
         <v>4</v>
       </c>
       <c r="D192" t="s">
-        <v>7</v>
-      </c>
-      <c r="E192">
+        <v>9</v>
+      </c>
+      <c r="E192" t="s">
+        <v>7</v>
+      </c>
+      <c r="F192">
         <v>120</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:6">
       <c r="A193" s="1">
         <v>43868</v>
       </c>
@@ -5375,14 +5965,17 @@
         <v>5</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
-      </c>
-      <c r="E193">
+        <v>11</v>
+      </c>
+      <c r="E193" t="s">
+        <v>7</v>
+      </c>
+      <c r="F193">
         <f>4*60</f>
         <v>240</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:6">
       <c r="A194" s="1">
         <v>43869</v>
       </c>
@@ -5395,14 +5988,17 @@
         <v>6</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
-      </c>
-      <c r="E194">
+        <v>11</v>
+      </c>
+      <c r="E194" t="s">
+        <v>7</v>
+      </c>
+      <c r="F194">
         <f>120+10</f>
         <v>130</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:6">
       <c r="A195" s="1">
         <v>43871</v>
       </c>
@@ -5415,13 +6011,16 @@
         <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>5</v>
-      </c>
-      <c r="E195">
+        <v>6</v>
+      </c>
+      <c r="E195" t="s">
+        <v>7</v>
+      </c>
+      <c r="F195">
         <v>60</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:6">
       <c r="A196" s="1">
         <v>43871</v>
       </c>
@@ -5434,13 +6033,16 @@
         <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>7</v>
-      </c>
-      <c r="E196">
+        <v>9</v>
+      </c>
+      <c r="E196" t="s">
+        <v>7</v>
+      </c>
+      <c r="F196">
         <v>60</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:6">
       <c r="A197" s="1">
         <v>43871</v>
       </c>
@@ -5453,13 +6055,16 @@
         <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>7</v>
-      </c>
-      <c r="E197">
+        <v>9</v>
+      </c>
+      <c r="E197" t="s">
+        <v>7</v>
+      </c>
+      <c r="F197">
         <v>120</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:6">
       <c r="A198" s="1">
         <v>43872</v>
       </c>
@@ -5472,13 +6077,16 @@
         <v>2</v>
       </c>
       <c r="D198" t="s">
-        <v>5</v>
-      </c>
-      <c r="E198">
+        <v>6</v>
+      </c>
+      <c r="E198" t="s">
+        <v>7</v>
+      </c>
+      <c r="F198">
         <v>60</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:6">
       <c r="A199" s="1">
         <v>43872</v>
       </c>
@@ -5491,13 +6099,16 @@
         <v>2</v>
       </c>
       <c r="D199" t="s">
-        <v>7</v>
-      </c>
-      <c r="E199">
+        <v>9</v>
+      </c>
+      <c r="E199" t="s">
+        <v>7</v>
+      </c>
+      <c r="F199">
         <v>180</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:6">
       <c r="A200" s="1">
         <v>43873</v>
       </c>
@@ -5510,13 +6121,16 @@
         <v>3</v>
       </c>
       <c r="D200" t="s">
-        <v>5</v>
-      </c>
-      <c r="E200">
+        <v>6</v>
+      </c>
+      <c r="E200" t="s">
+        <v>7</v>
+      </c>
+      <c r="F200">
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:6">
       <c r="A201" s="1">
         <v>43873</v>
       </c>
@@ -5529,13 +6143,16 @@
         <v>3</v>
       </c>
       <c r="D201" t="s">
-        <v>7</v>
-      </c>
-      <c r="E201">
+        <v>9</v>
+      </c>
+      <c r="E201" t="s">
+        <v>7</v>
+      </c>
+      <c r="F201">
         <v>120</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:6">
       <c r="A202" s="1">
         <v>43873</v>
       </c>
@@ -5548,13 +6165,16 @@
         <v>3</v>
       </c>
       <c r="D202" t="s">
-        <v>7</v>
-      </c>
-      <c r="E202">
+        <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>7</v>
+      </c>
+      <c r="F202">
         <v>60</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:6">
       <c r="A203" s="1">
         <v>43874</v>
       </c>
@@ -5567,13 +6187,16 @@
         <v>4</v>
       </c>
       <c r="D203" t="s">
-        <v>7</v>
-      </c>
-      <c r="E203">
+        <v>9</v>
+      </c>
+      <c r="E203" t="s">
+        <v>7</v>
+      </c>
+      <c r="F203">
         <v>120</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:6">
       <c r="A204" s="1">
         <v>43874</v>
       </c>
@@ -5586,13 +6209,16 @@
         <v>4</v>
       </c>
       <c r="D204" t="s">
-        <v>7</v>
-      </c>
-      <c r="E204">
+        <v>9</v>
+      </c>
+      <c r="E204" t="s">
+        <v>7</v>
+      </c>
+      <c r="F204">
         <v>120</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:6">
       <c r="A205" s="1">
         <v>43875</v>
       </c>
@@ -5605,10 +6231,145 @@
         <v>5</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
-      </c>
-      <c r="E205">
+        <v>11</v>
+      </c>
+      <c r="E205" t="s">
+        <v>7</v>
+      </c>
+      <c r="F205">
         <v>180</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1">
+        <v>43878</v>
+      </c>
+      <c r="B206" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>8</v>
+      </c>
+      <c r="C206" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>1</v>
+      </c>
+      <c r="D206" t="s">
+        <v>8</v>
+      </c>
+      <c r="E206" t="s">
+        <v>12</v>
+      </c>
+      <c r="F206">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1">
+        <v>43879</v>
+      </c>
+      <c r="B207" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>8</v>
+      </c>
+      <c r="C207" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
+      </c>
+      <c r="D207" t="s">
+        <v>8</v>
+      </c>
+      <c r="E207" t="s">
+        <v>12</v>
+      </c>
+      <c r="F207">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1">
+        <v>43879</v>
+      </c>
+      <c r="B208" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>8</v>
+      </c>
+      <c r="C208" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
+      </c>
+      <c r="D208" t="s">
+        <v>9</v>
+      </c>
+      <c r="E208" t="s">
+        <v>13</v>
+      </c>
+      <c r="F208">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1">
+        <v>43879</v>
+      </c>
+      <c r="B209" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>8</v>
+      </c>
+      <c r="C209" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
+      </c>
+      <c r="D209" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209" t="s">
+        <v>13</v>
+      </c>
+      <c r="F209">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1">
+        <v>43879</v>
+      </c>
+      <c r="B210" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>8</v>
+      </c>
+      <c r="C210" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>2</v>
+      </c>
+      <c r="D210" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" t="s">
+        <v>13</v>
+      </c>
+      <c r="F210">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1">
+        <v>43880</v>
+      </c>
+      <c r="B211" s="6">
+        <f>WEEKNUM(Table1[[#This Row],[date]], 2)</f>
+        <v>8</v>
+      </c>
+      <c r="C211" s="6">
+        <f>WEEKDAY(Table1[[#This Row],[date]],2)</f>
+        <v>3</v>
+      </c>
+      <c r="D211" t="s">
+        <v>8</v>
+      </c>
+      <c r="E211" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -5639,27 +6400,27 @@
   <sheetData>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5754,7 +6515,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4">
         <v>181</v>
